--- a/data/2022-03-03_LakeErie_Mastersheet.xlsx
+++ b/data/2022-03-03_LakeErie_Mastersheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sklem\Documents\Etudes\Trent\Xenopoulos lab\Projects\Lake Erie &amp; animal excretion\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E9A16-F367-47E5-9F32-F761EF32E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{EA2E9A16-F367-47E5-9F32-F761EF32E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11ECAE85-D764-4A2D-8D0F-766FE5F154D8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{FCD5901F-55C5-46A6-83E9-A175C073FB2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FCD5901F-55C5-46A6-83E9-A175C073FB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Fishing and Environmental data" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="149">
   <si>
     <t>Sampling run</t>
   </si>
@@ -459,6 +459,36 @@
   <si>
     <t>10/20/2021</t>
   </si>
+  <si>
+    <t>%C</t>
+  </si>
+  <si>
+    <t>%N</t>
+  </si>
+  <si>
+    <t>C:N</t>
+  </si>
+  <si>
+    <t>for fish, from stable isotopes analyses in Fisk lab; for mussels, from elementar analyses in Frost lab</t>
+  </si>
+  <si>
+    <t>from Xenopoulos lab</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d15N</t>
+  </si>
+  <si>
+    <t>for fish, from stable isotopes analyses in Fisk lab - used data based on whole body or muscle analyses</t>
+  </si>
+  <si>
+    <t>%N tissue</t>
+  </si>
+  <si>
+    <t>%C tissue</t>
+  </si>
 </sst>
 </file>
 
@@ -505,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -519,6 +549,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7113,15 +7146,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB797C5-CB47-4805-AD51-BAF5F7220E5D}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -7165,7 +7198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>84</v>
       </c>
@@ -7179,7 +7212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>85</v>
       </c>
@@ -7187,7 +7220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -7195,7 +7228,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -7203,44 +7236,156 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="25:30" x14ac:dyDescent="0.35">
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7251,13 +7396,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4782880F-19F5-4C97-B687-8149361B0730}">
-  <dimension ref="A1:Y160"/>
+  <dimension ref="A1:AD160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H146" sqref="H146"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7266,7 +7411,7 @@
     <col min="14" max="14" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7340,10 +7485,25 @@
         <v>100</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -7423,11 +7583,11 @@
         <f>(W2/J2*60)/G2</f>
         <v>7238.4414137999984</v>
       </c>
-      <c r="Y2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>101</v>
       </c>
@@ -7507,11 +7667,11 @@
         <f t="shared" ref="X3:X46" si="6">(W3/J3*60)/G3</f>
         <v>3648.2018912250001</v>
       </c>
-      <c r="Y3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>102</v>
       </c>
@@ -7591,11 +7751,11 @@
         <f t="shared" si="6"/>
         <v>3238.2886185290331</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>103</v>
       </c>
@@ -7675,11 +7835,11 @@
         <f t="shared" si="6"/>
         <v>3661.6451087177425</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>104</v>
       </c>
@@ -7759,11 +7919,11 @@
         <f t="shared" si="6"/>
         <v>4819.0041642919359</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>105</v>
       </c>
@@ -7843,11 +8003,11 @@
         <f t="shared" si="6"/>
         <v>3935.7271456199996</v>
       </c>
-      <c r="Y7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>107</v>
       </c>
@@ -7927,11 +8087,11 @@
         <f t="shared" si="6"/>
         <v>3424.9940921045454</v>
       </c>
-      <c r="Y8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>108</v>
       </c>
@@ -8011,11 +8171,11 @@
         <f t="shared" si="6"/>
         <v>2972.8641739499994</v>
       </c>
-      <c r="Y9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>109</v>
       </c>
@@ -8095,11 +8255,11 @@
         <f t="shared" si="6"/>
         <v>14048.38427682857</v>
       </c>
-      <c r="Y10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>110</v>
       </c>
@@ -8179,11 +8339,11 @@
         <f t="shared" si="6"/>
         <v>4287.1311989549995</v>
       </c>
-      <c r="Y11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>111</v>
       </c>
@@ -8263,11 +8423,11 @@
         <f t="shared" si="6"/>
         <v>1129.06789665</v>
       </c>
-      <c r="Y12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>112</v>
       </c>
@@ -8347,11 +8507,11 @@
         <f t="shared" si="6"/>
         <v>4114.6215824999999</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>113</v>
       </c>
@@ -8431,11 +8591,11 @@
         <f t="shared" si="6"/>
         <v>1532.2265103449995</v>
       </c>
-      <c r="Y14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>114</v>
       </c>
@@ -8515,11 +8675,11 @@
         <f t="shared" si="6"/>
         <v>2363.0012786100006</v>
       </c>
-      <c r="Y15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>115</v>
       </c>
@@ -8599,11 +8759,11 @@
         <f t="shared" si="6"/>
         <v>1193.7261317400003</v>
       </c>
-      <c r="Y16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>116</v>
       </c>
@@ -8683,11 +8843,11 @@
         <f t="shared" si="6"/>
         <v>5928.3527493149995</v>
       </c>
-      <c r="Y17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>117</v>
       </c>
@@ -8767,11 +8927,11 @@
         <f t="shared" si="6"/>
         <v>2118.7383727650003</v>
       </c>
-      <c r="Y18" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>118</v>
       </c>
@@ -8851,11 +9011,11 @@
         <f t="shared" si="6"/>
         <v>1649.0505306299999</v>
       </c>
-      <c r="Y19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>119</v>
       </c>
@@ -8935,11 +9095,11 @@
         <f t="shared" si="6"/>
         <v>2474.8802323800001</v>
       </c>
-      <c r="Y20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>120</v>
       </c>
@@ -9019,11 +9179,11 @@
         <f t="shared" si="6"/>
         <v>8454.3676238549997</v>
       </c>
-      <c r="Y21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>121</v>
       </c>
@@ -9103,11 +9263,11 @@
         <f t="shared" si="6"/>
         <v>2007.7299107699998</v>
       </c>
-      <c r="Y22" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>122</v>
       </c>
@@ -9187,11 +9347,11 @@
         <f t="shared" si="6"/>
         <v>4647.4761862199994</v>
       </c>
-      <c r="Y23" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>123</v>
       </c>
@@ -9267,11 +9427,11 @@
       <c r="X24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y24" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>124</v>
       </c>
@@ -9347,11 +9507,11 @@
       <c r="X25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>125</v>
       </c>
@@ -9431,11 +9591,11 @@
         <f t="shared" si="6"/>
         <v>2897.8977017538464</v>
       </c>
-      <c r="Y26" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>126</v>
       </c>
@@ -9516,11 +9676,11 @@
         <f t="shared" si="6"/>
         <v>24.669084985147059</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>1.3334962267205783</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>127</v>
       </c>
@@ -9600,11 +9760,11 @@
         <f t="shared" si="6"/>
         <v>16.318005637752812</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>1.3731681167778587</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>128</v>
       </c>
@@ -9684,11 +9844,11 @@
         <f t="shared" si="6"/>
         <v>4.2867681468750005</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>1.2970090764968623</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>129</v>
       </c>
@@ -9764,11 +9924,11 @@
       <c r="X30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y30" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>130</v>
       </c>
@@ -9848,11 +10008,11 @@
         <f t="shared" si="6"/>
         <v>1006.0928500500004</v>
       </c>
-      <c r="Y31" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>131</v>
       </c>
@@ -9928,11 +10088,11 @@
       <c r="X32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y32" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>132</v>
       </c>
@@ -10012,11 +10172,11 @@
         <f t="shared" si="6"/>
         <v>13165.302023427272</v>
       </c>
-      <c r="Y33" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>133</v>
       </c>
@@ -10096,11 +10256,11 @@
         <f t="shared" si="6"/>
         <v>8990.1693375272735</v>
       </c>
-      <c r="Y34" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA34" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>134</v>
       </c>
@@ -10180,11 +10340,11 @@
         <f t="shared" si="6"/>
         <v>7144.2401343900019</v>
       </c>
-      <c r="Y35" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>135</v>
       </c>
@@ -10264,11 +10424,11 @@
         <f t="shared" si="6"/>
         <v>11719.623423202942</v>
       </c>
-      <c r="Y36" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA36" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>136</v>
       </c>
@@ -10348,11 +10508,11 @@
         <f t="shared" si="6"/>
         <v>6357.1682467227274</v>
       </c>
-      <c r="Y37" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA37" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>137</v>
       </c>
@@ -10432,11 +10592,11 @@
         <f t="shared" si="6"/>
         <v>8009.2471858593763</v>
       </c>
-      <c r="Y38" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA38" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>138</v>
       </c>
@@ -10516,11 +10676,11 @@
         <f t="shared" si="6"/>
         <v>13443.876453735</v>
       </c>
-      <c r="Y39" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA39" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>139</v>
       </c>
@@ -10600,11 +10760,11 @@
         <f t="shared" si="6"/>
         <v>3154.3510400024998</v>
       </c>
-      <c r="Y40" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA40" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>140</v>
       </c>
@@ -10684,11 +10844,11 @@
         <f t="shared" si="6"/>
         <v>653.24491680483857</v>
       </c>
-      <c r="Y41" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA41" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>141</v>
       </c>
@@ -10769,11 +10929,11 @@
         <f t="shared" si="6"/>
         <v>-5.7080499533898319</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="AA42" s="6">
         <v>1.422656205454786</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>142</v>
       </c>
@@ -10849,11 +11009,11 @@
       <c r="X43" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y43" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA43" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>143</v>
       </c>
@@ -10934,11 +11094,11 @@
         <f t="shared" si="6"/>
         <v>4.1221994636363624</v>
       </c>
-      <c r="Y44">
+      <c r="AA44">
         <v>1.1525255462158601</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>144</v>
       </c>
@@ -11019,11 +11179,11 @@
         <f t="shared" si="6"/>
         <v>33.487499690217398</v>
       </c>
-      <c r="Y45">
+      <c r="AA45">
         <v>1.4162833266498689</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>145</v>
       </c>
@@ -11104,11 +11264,11 @@
         <f t="shared" si="6"/>
         <v>6.4780855722222181</v>
       </c>
-      <c r="Y46">
+      <c r="AA46">
         <v>1.0982607475444324</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>146</v>
       </c>
@@ -11184,11 +11344,11 @@
       <c r="X47" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y47" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA47" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>200</v>
       </c>
@@ -11258,11 +11418,26 @@
         <f t="shared" si="4"/>
         <v>41.571333658536588</v>
       </c>
-      <c r="Y48" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y48" s="8">
+        <v>41.268769832931916</v>
+      </c>
+      <c r="Z48" s="8">
+        <v>11.657486598331682</v>
+      </c>
+      <c r="AA48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB48">
+        <v>3.5401087090966885</v>
+      </c>
+      <c r="AC48" s="8">
+        <v>-19.862049406277322</v>
+      </c>
+      <c r="AD48" s="8">
+        <v>8.3847586859687198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>201</v>
       </c>
@@ -11332,11 +11507,26 @@
         <f t="shared" si="4"/>
         <v>57.719015121951223</v>
       </c>
-      <c r="Y49" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y49" s="8">
+        <v>48.023862040266181</v>
+      </c>
+      <c r="Z49" s="8">
+        <v>13.571514530090662</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB49">
+        <v>3.5385779482303192</v>
+      </c>
+      <c r="AC49" s="8">
+        <v>-18.679240911920768</v>
+      </c>
+      <c r="AD49" s="8">
+        <v>8.7270334952932984</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>202</v>
       </c>
@@ -11406,11 +11596,26 @@
         <f t="shared" si="4"/>
         <v>38.309009268292691</v>
       </c>
-      <c r="Y50" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y50" s="8">
+        <v>50.463596319797603</v>
+      </c>
+      <c r="Z50" s="8">
+        <v>13.483840144439847</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB50">
+        <v>3.7425240717205184</v>
+      </c>
+      <c r="AC50" s="8">
+        <v>-20.053856189145954</v>
+      </c>
+      <c r="AD50" s="8">
+        <v>9.1981531322659187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>203</v>
       </c>
@@ -11480,11 +11685,26 @@
         <f t="shared" si="4"/>
         <v>77.084064878048778</v>
       </c>
-      <c r="Y51" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y51" s="8">
+        <v>44.829084275094807</v>
+      </c>
+      <c r="Z51" s="8">
+        <v>13.217583694498243</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB51">
+        <v>3.3916247713078378</v>
+      </c>
+      <c r="AC51" s="8">
+        <v>-17.393536070504485</v>
+      </c>
+      <c r="AD51" s="8">
+        <v>7.8831490516137386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>204</v>
       </c>
@@ -11554,11 +11774,26 @@
         <f t="shared" si="4"/>
         <v>39.334311219512195</v>
       </c>
-      <c r="Y52" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y52" s="8">
+        <v>48.105372156855218</v>
+      </c>
+      <c r="Z52" s="8">
+        <v>11.913260402967483</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB52">
+        <v>4.0379686609446237</v>
+      </c>
+      <c r="AC52" s="8">
+        <v>-19.45645798000303</v>
+      </c>
+      <c r="AD52" s="8">
+        <v>7.8546261508366904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>205</v>
       </c>
@@ -11627,11 +11862,26 @@
         <f t="shared" si="4"/>
         <v>86.574244499999992</v>
       </c>
-      <c r="Y53" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y53" s="8">
+        <v>47.845184510930856</v>
+      </c>
+      <c r="Z53" s="8">
+        <v>13.707852722485121</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB53">
+        <v>3.4903485964982646</v>
+      </c>
+      <c r="AC53" s="8">
+        <v>-20.02688336030505</v>
+      </c>
+      <c r="AD53" s="8">
+        <v>7.8438071195074652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>206</v>
       </c>
@@ -11700,11 +11950,26 @@
         <f t="shared" si="4"/>
         <v>22.593634054054053</v>
       </c>
-      <c r="Y54" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y54" s="8">
+        <v>48.77149830380344</v>
+      </c>
+      <c r="Z54" s="8">
+        <v>14.145544654748724</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB54">
+        <v>3.4478346005171758</v>
+      </c>
+      <c r="AC54" s="8">
+        <v>-19.302612956243816</v>
+      </c>
+      <c r="AD54" s="8">
+        <v>9.9633537117329318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>207</v>
       </c>
@@ -11774,11 +12039,26 @@
         <f t="shared" si="4"/>
         <v>46.960545789473677</v>
       </c>
-      <c r="Y55" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y55" s="8">
+        <v>45.101389328059625</v>
+      </c>
+      <c r="Z55" s="8">
+        <v>13.727274392063153</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55">
+        <v>3.2855312744485086</v>
+      </c>
+      <c r="AC55" s="8">
+        <v>-16.767167045199113</v>
+      </c>
+      <c r="AD55" s="8">
+        <v>7.7965968009799376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>208</v>
       </c>
@@ -11848,11 +12128,26 @@
         <f t="shared" si="4"/>
         <v>22.662043783783776</v>
       </c>
-      <c r="Y56" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y56" s="8">
+        <v>40.054321441921495</v>
+      </c>
+      <c r="Z56" s="8">
+        <v>11.864405784167309</v>
+      </c>
+      <c r="AA56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB56">
+        <v>3.3760073762288862</v>
+      </c>
+      <c r="AC56" s="8">
+        <v>-17.117813820130827</v>
+      </c>
+      <c r="AD56" s="8">
+        <v>8.0729738740265073</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>209</v>
       </c>
@@ -11922,11 +12217,26 @@
         <f t="shared" si="4"/>
         <v>46.007379473684203</v>
       </c>
-      <c r="Y57" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y57" s="8">
+        <v>46.622035665190204</v>
+      </c>
+      <c r="Z57" s="8">
+        <v>13.9946723121618</v>
+      </c>
+      <c r="AA57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB57">
+        <v>3.3314131710446855</v>
+      </c>
+      <c r="AC57" s="8">
+        <v>-18.102821569654104</v>
+      </c>
+      <c r="AD57" s="8">
+        <v>8.5932709261319697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>210</v>
       </c>
@@ -11996,11 +12306,26 @@
         <f t="shared" si="4"/>
         <v>25.335412105263153</v>
       </c>
-      <c r="Y58" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y58" s="8">
+        <v>45.399814637054185</v>
+      </c>
+      <c r="Z58" s="8">
+        <v>12.493075857076738</v>
+      </c>
+      <c r="AA58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB58">
+        <v>3.6339981567739645</v>
+      </c>
+      <c r="AC58" s="8">
+        <v>-20.224684105138326</v>
+      </c>
+      <c r="AD58" s="8">
+        <v>10.514140761220755</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>211</v>
       </c>
@@ -12069,11 +12394,26 @@
         <f t="shared" si="4"/>
         <v>33.277186153846159</v>
       </c>
-      <c r="Y59" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y59" s="8">
+        <v>46.441976239614213</v>
+      </c>
+      <c r="Z59" s="8">
+        <v>13.763615704001237</v>
+      </c>
+      <c r="AA59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB59">
+        <v>3.3742569713068211</v>
+      </c>
+      <c r="AC59" s="8">
+        <v>-17.008923511106449</v>
+      </c>
+      <c r="AD59" s="8">
+        <v>8.3454167538624482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>212</v>
       </c>
@@ -12142,11 +12482,26 @@
         <f t="shared" si="4"/>
         <v>30.614826857142855</v>
       </c>
-      <c r="Y60" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y60" s="8">
+        <v>45.506955377509499</v>
+      </c>
+      <c r="Z60" s="8">
+        <v>12.921571127034527</v>
+      </c>
+      <c r="AA60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB60">
+        <v>3.5217819048567391</v>
+      </c>
+      <c r="AC60" s="8">
+        <v>-19.060856490336484</v>
+      </c>
+      <c r="AD60" s="8">
+        <v>7.365802644416247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>213</v>
       </c>
@@ -12215,11 +12570,26 @@
         <f t="shared" si="4"/>
         <v>44.228556000000005</v>
       </c>
-      <c r="Y61" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y61">
+        <v>43.226796733858045</v>
+      </c>
+      <c r="Z61">
+        <v>12.927991861589712</v>
+      </c>
+      <c r="AA61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB61">
+        <v>3.344076243367573</v>
+      </c>
+      <c r="AC61">
+        <v>-17.951307531103364</v>
+      </c>
+      <c r="AD61">
+        <v>8.2818139636239732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>214</v>
       </c>
@@ -12288,11 +12658,26 @@
         <f t="shared" si="4"/>
         <v>94.284109999999998</v>
       </c>
-      <c r="Y62" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y62">
+        <v>45.855573752930248</v>
+      </c>
+      <c r="Z62">
+        <v>13.107901323778782</v>
+      </c>
+      <c r="AA62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB62">
+        <v>3.4983154526609512</v>
+      </c>
+      <c r="AC62">
+        <v>-15.374569882079996</v>
+      </c>
+      <c r="AD62">
+        <v>7.7415180960311538</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>215</v>
       </c>
@@ -12361,11 +12746,26 @@
         <f t="shared" si="4"/>
         <v>34.708825945945939</v>
       </c>
-      <c r="Y63" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y63">
+        <v>45.151981351258598</v>
+      </c>
+      <c r="Z63">
+        <v>12.851598659115895</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB63">
+        <v>3.5133357762640212</v>
+      </c>
+      <c r="AC63">
+        <v>-20.312595547286449</v>
+      </c>
+      <c r="AD63">
+        <v>9.8787685577044435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>216</v>
       </c>
@@ -12434,11 +12834,26 @@
         <f t="shared" si="4"/>
         <v>34.881903243243237</v>
       </c>
-      <c r="Y64" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y64">
+        <v>48.493961232660318</v>
+      </c>
+      <c r="Z64">
+        <v>13.551373480254691</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB64">
+        <v>3.5785273945345426</v>
+      </c>
+      <c r="AC64">
+        <v>-16.501434731433196</v>
+      </c>
+      <c r="AD64">
+        <v>8.9266938007326342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>217</v>
       </c>
@@ -12507,11 +12922,26 @@
         <f t="shared" si="4"/>
         <v>77.644572631578967</v>
       </c>
-      <c r="Y65" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y65">
+        <v>46.919444510957248</v>
+      </c>
+      <c r="Z65">
+        <v>11.960143176782946</v>
+      </c>
+      <c r="AA65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB65">
+        <v>3.9229835142807796</v>
+      </c>
+      <c r="AC65">
+        <v>-19.761151046539133</v>
+      </c>
+      <c r="AD65">
+        <v>8.0562535528813406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>218</v>
       </c>
@@ -12580,11 +13010,26 @@
         <f t="shared" si="4"/>
         <v>12.585798947368419</v>
       </c>
-      <c r="Y66" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y66">
+        <v>41.291728835214329</v>
+      </c>
+      <c r="Z66">
+        <v>11.071236139224085</v>
+      </c>
+      <c r="AA66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB66">
+        <v>3.7296403324758467</v>
+      </c>
+      <c r="AC66">
+        <v>-17.658269390609625</v>
+      </c>
+      <c r="AD66">
+        <v>7.7621726103869495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>219</v>
       </c>
@@ -12650,11 +13095,26 @@
         <f t="shared" ref="U67:U130" si="19">(T67/J67*60)/G67</f>
         <v>8080.9046181818194</v>
       </c>
-      <c r="Y67" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y67">
+        <v>48.925217850405573</v>
+      </c>
+      <c r="Z67">
+        <v>14.556161387128618</v>
+      </c>
+      <c r="AA67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB67">
+        <v>3.3611346116063276</v>
+      </c>
+      <c r="AC67" s="8">
+        <v>-16.16477386775232</v>
+      </c>
+      <c r="AD67" s="8">
+        <v>7.7366003545178721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>220</v>
       </c>
@@ -12720,11 +13180,26 @@
         <f t="shared" si="19"/>
         <v>4382.5390645161297</v>
       </c>
-      <c r="Y68" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y68">
+        <v>47.215207275148913</v>
+      </c>
+      <c r="Z68">
+        <v>13.937784692137903</v>
+      </c>
+      <c r="AA68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB68">
+        <v>3.3875689945032876</v>
+      </c>
+      <c r="AC68" s="8">
+        <v>-17.541387132299054</v>
+      </c>
+      <c r="AD68" s="8">
+        <v>9.6033750329605319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>221</v>
       </c>
@@ -12790,11 +13265,11 @@
         <f t="shared" si="19"/>
         <v>2158.6055526315786</v>
       </c>
-      <c r="Y69" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA69" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>222</v>
       </c>
@@ -12860,11 +13335,11 @@
         <f t="shared" si="19"/>
         <v>2138.7438947368414</v>
       </c>
-      <c r="Y70" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA70" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>223</v>
       </c>
@@ -12930,11 +13405,11 @@
         <f t="shared" si="19"/>
         <v>2978.0781081081082</v>
       </c>
-      <c r="Y71" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA71" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>224</v>
       </c>
@@ -13000,11 +13475,11 @@
         <f t="shared" si="19"/>
         <v>2019.3329999999999</v>
       </c>
-      <c r="Y72" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA72" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>225</v>
       </c>
@@ -13070,11 +13545,11 @@
         <f t="shared" si="19"/>
         <v>2096.6512058823528</v>
       </c>
-      <c r="Y73" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA73" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>226</v>
       </c>
@@ -13140,11 +13615,11 @@
         <f t="shared" si="19"/>
         <v>3738.0372580645153</v>
       </c>
-      <c r="Y74" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA74" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>227</v>
       </c>
@@ -13210,11 +13685,11 @@
         <f t="shared" si="19"/>
         <v>1339.1853000000003</v>
       </c>
-      <c r="Y75" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA75" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>228</v>
       </c>
@@ -13280,11 +13755,11 @@
         <f t="shared" si="19"/>
         <v>1975.0182413793104</v>
       </c>
-      <c r="Y76" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA76" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>229</v>
       </c>
@@ -13351,11 +13826,11 @@
         <f t="shared" si="19"/>
         <v>3364.1324444444449</v>
       </c>
-      <c r="Y77" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA77" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>230</v>
       </c>
@@ -13422,11 +13897,11 @@
         <f t="shared" si="19"/>
         <v>2090.6504571428577</v>
       </c>
-      <c r="Y78" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA78" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>231</v>
       </c>
@@ -13493,11 +13968,26 @@
         <f t="shared" si="19"/>
         <v>1550.6940454545452</v>
       </c>
-      <c r="Y79" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y79" s="8">
+        <v>52.430476865432681</v>
+      </c>
+      <c r="Z79" s="8">
+        <v>16.328197300791</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB79" s="8">
+        <v>3.2110389101491776</v>
+      </c>
+      <c r="AC79" s="8">
+        <v>-16.232705436684963</v>
+      </c>
+      <c r="AD79" s="8">
+        <v>11.011816202365111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>232</v>
       </c>
@@ -13564,11 +14054,11 @@
         <f t="shared" si="19"/>
         <v>716.06372727272731</v>
       </c>
-      <c r="Y80" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA80" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>233</v>
       </c>
@@ -13633,11 +14123,11 @@
         <f t="shared" si="19"/>
         <v>858.15004545454565</v>
       </c>
-      <c r="Y81" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA81" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>234</v>
       </c>
@@ -13704,11 +14194,11 @@
         <f t="shared" si="19"/>
         <v>1350.490640625</v>
       </c>
-      <c r="Y82" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA82" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>235</v>
       </c>
@@ -13775,11 +14265,11 @@
         <f t="shared" si="19"/>
         <v>1197.4402031249999</v>
       </c>
-      <c r="Y83" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA83" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>236</v>
       </c>
@@ -13845,11 +14335,11 @@
         <f t="shared" si="19"/>
         <v>719.38295454545448</v>
       </c>
-      <c r="Y84" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA84" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>237</v>
       </c>
@@ -13915,11 +14405,11 @@
         <f t="shared" si="19"/>
         <v>1028.9478281250001</v>
       </c>
-      <c r="Y85" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA85" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>238</v>
       </c>
@@ -13985,11 +14475,11 @@
         <f t="shared" si="19"/>
         <v>812.27308235294117</v>
       </c>
-      <c r="Y86" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA86" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>239</v>
       </c>
@@ -14055,11 +14545,11 @@
         <f t="shared" si="19"/>
         <v>125.50002181818181</v>
       </c>
-      <c r="Y87" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA87" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>240</v>
       </c>
@@ -14125,11 +14615,11 @@
         <f t="shared" si="19"/>
         <v>201.96794909090912</v>
       </c>
-      <c r="Y88" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA88" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>241</v>
       </c>
@@ -14195,11 +14685,11 @@
         <f t="shared" si="19"/>
         <v>274.53256000000005</v>
       </c>
-      <c r="Y89" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA89" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>242</v>
       </c>
@@ -14265,11 +14755,11 @@
         <f t="shared" si="19"/>
         <v>476.4371999999999</v>
       </c>
-      <c r="Y90" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA90" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>243</v>
       </c>
@@ -14335,11 +14825,11 @@
         <f t="shared" si="19"/>
         <v>576.11345806451618</v>
       </c>
-      <c r="Y91" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA91" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>244</v>
       </c>
@@ -14405,11 +14895,11 @@
         <f t="shared" si="19"/>
         <v>303.0658499999999</v>
       </c>
-      <c r="Y92" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA92" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>245</v>
       </c>
@@ -14472,11 +14962,11 @@
       <c r="U93" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y93" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA93" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>246</v>
       </c>
@@ -14541,11 +15031,11 @@
         <f t="shared" si="19"/>
         <v>3.3051502702702726</v>
       </c>
-      <c r="Y94" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA94" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>247</v>
       </c>
@@ -14612,11 +15102,11 @@
         <f t="shared" si="19"/>
         <v>3424.9003076923082</v>
       </c>
-      <c r="Y95" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA95" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>248</v>
       </c>
@@ -14682,11 +15172,11 @@
         <f t="shared" si="19"/>
         <v>3357.9206846153843</v>
       </c>
-      <c r="Y96" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA96" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>249</v>
       </c>
@@ -14754,11 +15244,11 @@
         <f t="shared" si="19"/>
         <v>205.60192975609758</v>
       </c>
-      <c r="Y97" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA97" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>250</v>
       </c>
@@ -14828,11 +15318,26 @@
         <f t="shared" si="19"/>
         <v>109.79866800000003</v>
       </c>
-      <c r="Y98" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y98">
+        <v>45.194361632360113</v>
+      </c>
+      <c r="Z98">
+        <v>13.320934387087064</v>
+      </c>
+      <c r="AA98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB98">
+        <v>3.3927320951426836</v>
+      </c>
+      <c r="AC98">
+        <v>-18.502419033963751</v>
+      </c>
+      <c r="AD98">
+        <v>8.3955777172979467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>251</v>
       </c>
@@ -14901,11 +15406,26 @@
         <f t="shared" si="19"/>
         <v>178.48648799999998</v>
       </c>
-      <c r="Y99" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y99">
+        <v>45.480914068686779</v>
+      </c>
+      <c r="Z99">
+        <v>13.760689982030001</v>
+      </c>
+      <c r="AA99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB99">
+        <v>3.3051332548062646</v>
+      </c>
+      <c r="AC99">
+        <v>-18.245677663144804</v>
+      </c>
+      <c r="AD99">
+        <v>8.1132993544354353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>252</v>
       </c>
@@ -14974,11 +15494,26 @@
         <f t="shared" si="19"/>
         <v>21.157897500000001</v>
       </c>
-      <c r="Y100" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y100">
+        <v>45.222681713314692</v>
+      </c>
+      <c r="Z100">
+        <v>12.565211489981763</v>
+      </c>
+      <c r="AA100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB100">
+        <v>3.6091769342682873</v>
+      </c>
+      <c r="AC100">
+        <v>-19.910001101994478</v>
+      </c>
+      <c r="AD100">
+        <v>9.3532259146514782</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>253</v>
       </c>
@@ -15047,11 +15582,26 @@
         <f t="shared" si="19"/>
         <v>17.923641176470586</v>
       </c>
-      <c r="Y101" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y101">
+        <v>46.163168599444994</v>
+      </c>
+      <c r="Z101">
+        <v>12.774420096209141</v>
+      </c>
+      <c r="AA101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB101">
+        <v>3.6137193118569892</v>
+      </c>
+      <c r="AC101">
+        <v>-19.421493201875936</v>
+      </c>
+      <c r="AD101">
+        <v>8.6385141480541829</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>254</v>
       </c>
@@ -15120,11 +15670,26 @@
         <f t="shared" si="19"/>
         <v>33.232735384615381</v>
       </c>
-      <c r="Y102" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y102">
+        <v>47.442889543028222</v>
+      </c>
+      <c r="Z102">
+        <v>14.375228920273537</v>
+      </c>
+      <c r="AA102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB102">
+        <v>3.3003223674663724</v>
+      </c>
+      <c r="AC102">
+        <v>-18.349573003865309</v>
+      </c>
+      <c r="AD102">
+        <v>8.1024803231062119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>255</v>
       </c>
@@ -15193,11 +15758,26 @@
         <f t="shared" si="19"/>
         <v>11.14336384615385</v>
       </c>
-      <c r="Y103" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y103">
+        <v>38.904014858420233</v>
+      </c>
+      <c r="Z103">
+        <v>10.939762881470784</v>
+      </c>
+      <c r="AA103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB103">
+        <v>3.5562027513698564</v>
+      </c>
+      <c r="AC103">
+        <v>-17.932992647322507</v>
+      </c>
+      <c r="AD103">
+        <v>7.988388719998019</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>256</v>
       </c>
@@ -15267,11 +15847,26 @@
         <f t="shared" si="19"/>
         <v>31.235702264150948</v>
       </c>
-      <c r="Y104" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y104">
+        <v>48.495959375707677</v>
+      </c>
+      <c r="Z104">
+        <v>14.251548282428933</v>
+      </c>
+      <c r="AA104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB104">
+        <v>3.4028554943394802</v>
+      </c>
+      <c r="AC104">
+        <v>-19.588325143225212</v>
+      </c>
+      <c r="AD104">
+        <v>7.9028200176668761</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>257</v>
       </c>
@@ -15340,11 +15935,26 @@
         <f t="shared" si="19"/>
         <v>28.063069811320762</v>
       </c>
-      <c r="Y105" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y105">
+        <v>46.412911537766028</v>
+      </c>
+      <c r="Z105">
+        <v>14.110624967783902</v>
+      </c>
+      <c r="AA105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB105">
+        <v>3.2892172844031906</v>
+      </c>
+      <c r="AC105">
+        <v>-18.718201664690959</v>
+      </c>
+      <c r="AD105">
+        <v>8.7122802707534444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>258</v>
       </c>
@@ -15413,11 +16023,26 @@
         <f t="shared" si="19"/>
         <v>44.935706037735855</v>
       </c>
-      <c r="Y106" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y106">
+        <v>47.291687585801782</v>
+      </c>
+      <c r="Z106">
+        <v>12.328436616349821</v>
+      </c>
+      <c r="AA106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB106">
+        <v>3.8359841606424068</v>
+      </c>
+      <c r="AC106">
+        <v>-18.828090967376113</v>
+      </c>
+      <c r="AD106">
+        <v>8.1349374170938873</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>259</v>
       </c>
@@ -15486,11 +16111,11 @@
         <f t="shared" si="19"/>
         <v>12.044753333333333</v>
       </c>
-      <c r="Y107" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA107" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>260</v>
       </c>
@@ -15559,11 +16184,26 @@
         <f t="shared" si="19"/>
         <v>59.83869927272729</v>
       </c>
-      <c r="Y108" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y108">
+        <v>48.456742250290766</v>
+      </c>
+      <c r="Z108">
+        <v>14.381520119992919</v>
+      </c>
+      <c r="AA108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB108">
+        <v>3.3693755490372062</v>
+      </c>
+      <c r="AC108" s="8">
+        <v>-19.185730697933245</v>
+      </c>
+      <c r="AD108">
+        <v>8.1447729001204543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>261</v>
       </c>
@@ -15632,11 +16272,26 @@
         <f t="shared" si="19"/>
         <v>25.986443333333334</v>
       </c>
-      <c r="Y109" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y109">
+        <v>42.527922033242341</v>
+      </c>
+      <c r="Z109">
+        <v>11.075150315543558</v>
+      </c>
+      <c r="AA109" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB109">
+        <v>3.8399408424783181</v>
+      </c>
+      <c r="AC109" s="8">
+        <v>-18.767152354068891</v>
+      </c>
+      <c r="AD109">
+        <v>8.5726164117761758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>262</v>
       </c>
@@ -15705,11 +16360,26 @@
         <f t="shared" si="19"/>
         <v>61.071013928571411</v>
       </c>
-      <c r="Y110" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y110">
+        <v>50.499678753364485</v>
+      </c>
+      <c r="Z110">
+        <v>13.613851459123676</v>
+      </c>
+      <c r="AA110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB110">
+        <v>3.7094336532899961</v>
+      </c>
+      <c r="AC110" s="8">
+        <v>-17.944980571251797</v>
+      </c>
+      <c r="AD110">
+        <v>9.6348485786455509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>263</v>
       </c>
@@ -15778,11 +16448,26 @@
         <f t="shared" si="19"/>
         <v>15.768761052631577</v>
       </c>
-      <c r="Y111" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y111">
+        <v>48.099677215333443</v>
+      </c>
+      <c r="Z111">
+        <v>14.11218685713753</v>
+      </c>
+      <c r="AA111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB111">
+        <v>3.4083787085774051</v>
+      </c>
+      <c r="AC111" s="8">
+        <v>-18.197725967427644</v>
+      </c>
+      <c r="AD111">
+        <v>8.1634603178709337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>264</v>
       </c>
@@ -15851,11 +16536,26 @@
         <f t="shared" si="19"/>
         <v>11.819311071428572</v>
       </c>
-      <c r="Y112" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y112">
+        <v>45.716611686129617</v>
+      </c>
+      <c r="Z112">
+        <v>13.751719266610424</v>
+      </c>
+      <c r="AA112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB112">
+        <v>3.3244288077586694</v>
+      </c>
+      <c r="AC112" s="8">
+        <v>-17.961963463484956</v>
+      </c>
+      <c r="AD112">
+        <v>8.3945941689952903</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>265</v>
       </c>
@@ -15924,11 +16624,26 @@
         <f t="shared" si="19"/>
         <v>23.467045263157893</v>
       </c>
-      <c r="Y113" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y113">
+        <v>47.163659826966075</v>
+      </c>
+      <c r="Z113">
+        <v>12.777978046731738</v>
+      </c>
+      <c r="AA113" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB113">
+        <v>3.6910111798970626</v>
+      </c>
+      <c r="AC113" s="8">
+        <v>-19.270645159099047</v>
+      </c>
+      <c r="AD113">
+        <v>9.8177885629397217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>266</v>
       </c>
@@ -15993,11 +16708,11 @@
         <f t="shared" si="19"/>
         <v>0.57416400000000023</v>
       </c>
-      <c r="Y114" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA114" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>267</v>
       </c>
@@ -16062,11 +16777,11 @@
         <f t="shared" si="19"/>
         <v>-11.198234042553196</v>
       </c>
-      <c r="Y115" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA115" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>268</v>
       </c>
@@ -16133,11 +16848,11 @@
         <f t="shared" si="19"/>
         <v>1713.7757727272731</v>
       </c>
-      <c r="Y116" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA116" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>269</v>
       </c>
@@ -16203,11 +16918,11 @@
         <f t="shared" si="19"/>
         <v>3834.9456818181829</v>
       </c>
-      <c r="Y117" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA117" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>270</v>
       </c>
@@ -16273,11 +16988,26 @@
         <f t="shared" si="19"/>
         <v>49.092815454545445</v>
       </c>
-      <c r="Y118" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y118">
+        <v>38.528017779695212</v>
+      </c>
+      <c r="Z118">
+        <v>11.684147103135688</v>
+      </c>
+      <c r="AA118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB118">
+        <v>3.2974608621073767</v>
+      </c>
+      <c r="AC118">
+        <v>-19.374540499819553</v>
+      </c>
+      <c r="AD118">
+        <v>9.4627276256806052</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>271</v>
       </c>
@@ -16343,11 +17073,26 @@
         <f t="shared" si="19"/>
         <v>144.46508294117649</v>
       </c>
-      <c r="Y119" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y119">
+        <v>44.830058985901388</v>
+      </c>
+      <c r="Z119">
+        <v>11.901785151830669</v>
+      </c>
+      <c r="AA119" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB119">
+        <v>3.7666667994763681</v>
+      </c>
+      <c r="AC119">
+        <v>-22.103791181054437</v>
+      </c>
+      <c r="AD119">
+        <v>11.333436497333894</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>272</v>
       </c>
@@ -16414,11 +17159,26 @@
         <f t="shared" si="19"/>
         <v>106.24928294117646</v>
       </c>
-      <c r="Y120" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y120">
+        <v>48.226425748934403</v>
+      </c>
+      <c r="Z120">
+        <v>10.664345066825575</v>
+      </c>
+      <c r="AA120" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB120">
+        <v>4.5222116732659163</v>
+      </c>
+      <c r="AC120">
+        <v>-18.245677663144804</v>
+      </c>
+      <c r="AD120">
+        <v>10.690195907396328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>273</v>
       </c>
@@ -16486,11 +17246,26 @@
         <f t="shared" si="19"/>
         <v>184.32226058823528</v>
       </c>
-      <c r="Y121" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y121">
+        <v>46.80955726952849</v>
+      </c>
+      <c r="Z121">
+        <v>12.787587579788466</v>
+      </c>
+      <c r="AA121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB121">
+        <v>3.6606505735550718</v>
+      </c>
+      <c r="AC121">
+        <v>-22.266627147760616</v>
+      </c>
+      <c r="AD121">
+        <v>11.608830022077806</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>274</v>
       </c>
@@ -16558,11 +17333,26 @@
         <f t="shared" si="19"/>
         <v>84.593662941176461</v>
       </c>
-      <c r="Y122" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y122">
+        <v>44.139915199511876</v>
+      </c>
+      <c r="Z122">
+        <v>12.617039210032626</v>
+      </c>
+      <c r="AA122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB122">
+        <v>3.4984368729244628</v>
+      </c>
+      <c r="AC122">
+        <v>-19.478435840540062</v>
+      </c>
+      <c r="AD122">
+        <v>11.457363583468654</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>275</v>
       </c>
@@ -16629,11 +17419,26 @@
         <f t="shared" si="19"/>
         <v>145.15050529411764</v>
       </c>
-      <c r="Y123" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y123">
+        <v>44.04375030725928</v>
+      </c>
+      <c r="Z123">
+        <v>12.262638450025605</v>
+      </c>
+      <c r="AA123" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB123">
+        <v>3.5917025921258663</v>
+      </c>
+      <c r="AC123">
+        <v>-15.226718820285427</v>
+      </c>
+      <c r="AD123">
+        <v>9.2148734534110854</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>276</v>
       </c>
@@ -16701,11 +17506,26 @@
         <f t="shared" si="19"/>
         <v>191.07337235294119</v>
       </c>
-      <c r="Y124" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y124">
+        <v>49.669454425579339</v>
+      </c>
+      <c r="Z124">
+        <v>12.958574296825196</v>
+      </c>
+      <c r="AA124" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB124">
+        <v>3.8329412856588845</v>
+      </c>
+      <c r="AC124">
+        <v>-26.521341148997575</v>
+      </c>
+      <c r="AD124">
+        <v>13.488390828455005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>277</v>
       </c>
@@ -16773,11 +17593,26 @@
         <f t="shared" si="19"/>
         <v>113.29297941176468</v>
       </c>
-      <c r="Y125" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y125">
+        <v>47.739124117278834</v>
+      </c>
+      <c r="Z125">
+        <v>13.00332994533488</v>
+      </c>
+      <c r="AA125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB125">
+        <v>3.6712999145581082</v>
+      </c>
+      <c r="AC125">
+        <v>-20.866038035355309</v>
+      </c>
+      <c r="AD125">
+        <v>11.191805541751311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>278</v>
       </c>
@@ -16844,11 +17679,26 @@
         <f t="shared" si="19"/>
         <v>193.30209352941179</v>
       </c>
-      <c r="Y126" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y126">
+        <v>44.20551965286932</v>
+      </c>
+      <c r="Z126">
+        <v>11.695709023089174</v>
+      </c>
+      <c r="AA126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB126">
+        <v>3.7796357249997117</v>
+      </c>
+      <c r="AC126">
+        <v>-21.956939112920644</v>
+      </c>
+      <c r="AD126">
+        <v>7.493663923761634</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>279</v>
       </c>
@@ -16915,11 +17765,26 @@
         <f t="shared" si="19"/>
         <v>142.91254557692309</v>
       </c>
-      <c r="Y127" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y127">
+        <v>52.170134348509578</v>
+      </c>
+      <c r="Z127">
+        <v>11.135309357323026</v>
+      </c>
+      <c r="AA127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB127">
+        <v>4.6851086641971387</v>
+      </c>
+      <c r="AC127">
+        <v>-26.197667202906761</v>
+      </c>
+      <c r="AD127">
+        <v>5.0072538146451713</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>280</v>
       </c>
@@ -16986,11 +17851,26 @@
         <f t="shared" si="19"/>
         <v>103.55464557692309</v>
       </c>
-      <c r="Y128" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y128">
+        <v>43.893163876723555</v>
+      </c>
+      <c r="Z128">
+        <v>12.245561308853221</v>
+      </c>
+      <c r="AA128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB128">
+        <v>3.5844142028009731</v>
+      </c>
+      <c r="AC128">
+        <v>-23.498386331495098</v>
+      </c>
+      <c r="AD128">
+        <v>12.001265794837881</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>281</v>
       </c>
@@ -17057,11 +17937,26 @@
         <f t="shared" si="19"/>
         <v>83.478322941176486</v>
       </c>
-      <c r="Y129" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y129">
+        <v>43.387639561216638</v>
+      </c>
+      <c r="Z129">
+        <v>13.056967864961122</v>
+      </c>
+      <c r="AA129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB129">
+        <v>3.3229490958348031</v>
+      </c>
+      <c r="AC129">
+        <v>-21.178723051177606</v>
+      </c>
+      <c r="AD129">
+        <v>12.223547711238323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>282</v>
       </c>
@@ -17129,11 +18024,11 @@
         <f t="shared" si="19"/>
         <v>119.52395823529412</v>
       </c>
-      <c r="Y130" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA130" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>283</v>
       </c>
@@ -17201,11 +18096,26 @@
         <f t="shared" ref="U131:U160" si="30">(T131/J131*60)/G131</f>
         <v>124.26894540000001</v>
       </c>
-      <c r="Y131" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y131">
+        <v>44.00341777957469</v>
+      </c>
+      <c r="Z131" s="8">
+        <v>12.317630810143008</v>
+      </c>
+      <c r="AA131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB131">
+        <v>3.572392975387757</v>
+      </c>
+      <c r="AC131" s="8">
+        <v>-24.232646672164076</v>
+      </c>
+      <c r="AD131" s="8">
+        <v>9.7312363123059207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>284</v>
       </c>
@@ -17273,11 +18183,11 @@
         <f t="shared" si="30"/>
         <v>119.16882882352942</v>
       </c>
-      <c r="Y132" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA132" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>285</v>
       </c>
@@ -17345,11 +18255,11 @@
         <f t="shared" si="30"/>
         <v>203.42328176470591</v>
       </c>
-      <c r="Y133" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA133" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>286</v>
       </c>
@@ -17417,11 +18327,26 @@
         <f t="shared" si="30"/>
         <v>104.34217588235296</v>
       </c>
-      <c r="Y134" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y134">
+        <v>48.054086114886189</v>
+      </c>
+      <c r="Z134">
+        <v>12.834374607920509</v>
+      </c>
+      <c r="AA134" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB134">
+        <v>3.7441704471700907</v>
+      </c>
+      <c r="AC134" s="8">
+        <v>-22.144749921146175</v>
+      </c>
+      <c r="AD134" s="8">
+        <v>11.57047163827419</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>287</v>
       </c>
@@ -17489,11 +18414,26 @@
         <f t="shared" si="30"/>
         <v>134.353666</v>
       </c>
-      <c r="Y135" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y135">
+        <v>50.114169135822124</v>
+      </c>
+      <c r="Z135">
+        <v>14.070076092226097</v>
+      </c>
+      <c r="AA135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB135">
+        <v>3.5617553741241572</v>
+      </c>
+      <c r="AC135" s="8">
+        <v>-19.296618994279171</v>
+      </c>
+      <c r="AD135" s="8">
+        <v>10.257434654227325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>288</v>
       </c>
@@ -17561,11 +18501,26 @@
         <f t="shared" si="30"/>
         <v>80.051112391304358</v>
       </c>
-      <c r="Y136" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y136">
+        <v>43.119970224196379</v>
+      </c>
+      <c r="Z136">
+        <v>12.904828212048425</v>
+      </c>
+      <c r="AA136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB136">
+        <v>3.3413827379691874</v>
+      </c>
+      <c r="AC136" s="8">
+        <v>-24.18469497644692</v>
+      </c>
+      <c r="AD136" s="8">
+        <v>13.585762110418031</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>289</v>
       </c>
@@ -17633,11 +18588,11 @@
         <f t="shared" si="30"/>
         <v>5682.3601499999986</v>
       </c>
-      <c r="Y137" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA137" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>290</v>
       </c>
@@ -17704,11 +18659,11 @@
         <f t="shared" si="30"/>
         <v>553.217895</v>
       </c>
-      <c r="Y138" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA138" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>291</v>
       </c>
@@ -17775,11 +18730,26 @@
         <f t="shared" si="30"/>
         <v>1083.0215600000001</v>
       </c>
-      <c r="Y139" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y139" s="8">
+        <v>42.591594406979894</v>
+      </c>
+      <c r="Z139">
+        <v>12.418261403679463</v>
+      </c>
+      <c r="AA139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB139" s="8">
+        <v>3.429755021452539</v>
+      </c>
+      <c r="AC139" s="8">
+        <v>-14.280671823532341</v>
+      </c>
+      <c r="AD139" s="8">
+        <v>8.7663754273995718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>292</v>
       </c>
@@ -17847,11 +18817,26 @@
         <f t="shared" si="30"/>
         <v>244.42652785714284</v>
       </c>
-      <c r="Y140" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y140" s="8">
+        <v>46.888005736622112</v>
+      </c>
+      <c r="Z140">
+        <v>11.795986793222362</v>
+      </c>
+      <c r="AA140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB140" s="8">
+        <v>3.9749116846725046</v>
+      </c>
+      <c r="AC140" s="8">
+        <v>-13.498459787146206</v>
+      </c>
+      <c r="AD140" s="8">
+        <v>9.0545550800780212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>293</v>
       </c>
@@ -17919,11 +18904,26 @@
         <f t="shared" si="30"/>
         <v>198.44886348837204</v>
       </c>
-      <c r="Y141" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y141" s="8">
+        <v>42.382009347829879</v>
+      </c>
+      <c r="Z141">
+        <v>13.028234894321105</v>
+      </c>
+      <c r="AA141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB141" s="8">
+        <v>3.2530891323047784</v>
+      </c>
+      <c r="AC141" s="8">
+        <v>-16.520415610987907</v>
+      </c>
+      <c r="AD141" s="8">
+        <v>9.5384608449851811</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>294</v>
       </c>
@@ -17990,11 +18990,11 @@
         <f t="shared" si="30"/>
         <v>3599.6960297872351</v>
       </c>
-      <c r="Y142" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA142" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>295</v>
       </c>
@@ -18061,11 +19061,11 @@
         <f t="shared" si="30"/>
         <v>2903.4083936170214</v>
       </c>
-      <c r="Y143" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA143" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>296</v>
       </c>
@@ -18131,11 +19131,11 @@
         <f t="shared" si="30"/>
         <v>4193.8370999999997</v>
       </c>
-      <c r="Y144" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA144" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>297</v>
       </c>
@@ -18201,11 +19201,11 @@
         <f t="shared" si="30"/>
         <v>2164.3325162790698</v>
       </c>
-      <c r="Y145" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA145" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>298</v>
       </c>
@@ -18272,11 +19272,11 @@
         <f t="shared" si="30"/>
         <v>3951.5653378378379</v>
       </c>
-      <c r="Y146" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA146" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>299</v>
       </c>
@@ -18343,11 +19343,11 @@
         <f t="shared" si="30"/>
         <v>3586.4261447368422</v>
       </c>
-      <c r="Y147" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA147" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>300</v>
       </c>
@@ -18414,11 +19414,11 @@
         <f t="shared" si="30"/>
         <v>2159.0275657894731</v>
       </c>
-      <c r="Y148" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA148" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>301</v>
       </c>
@@ -18485,11 +19485,11 @@
         <f t="shared" si="30"/>
         <v>3831.5313088235289</v>
       </c>
-      <c r="Y149" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA149" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>302</v>
       </c>
@@ -18556,11 +19556,11 @@
         <f t="shared" si="30"/>
         <v>2259.0204187499994</v>
       </c>
-      <c r="Y150" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA150" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>303</v>
       </c>
@@ -18627,11 +19627,11 @@
         <f t="shared" si="30"/>
         <v>2818.8989482758634</v>
       </c>
-      <c r="Y151" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA151" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>304</v>
       </c>
@@ -18697,11 +19697,11 @@
         <f t="shared" si="30"/>
         <v>3685.5421500000002</v>
       </c>
-      <c r="Y152" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA152" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>305</v>
       </c>
@@ -18767,11 +19767,11 @@
         <f t="shared" si="30"/>
         <v>4259.01325</v>
       </c>
-      <c r="Y153" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA153" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>306</v>
       </c>
@@ -18837,11 +19837,11 @@
         <f t="shared" si="30"/>
         <v>2362.2854275862073</v>
       </c>
-      <c r="Y154" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA154" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>307</v>
       </c>
@@ -18907,11 +19907,11 @@
         <f t="shared" si="30"/>
         <v>3454.7240192307695</v>
       </c>
-      <c r="Y155" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA155" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>308</v>
       </c>
@@ -18977,11 +19977,11 @@
         <f t="shared" si="30"/>
         <v>4748.5728600000011</v>
       </c>
-      <c r="Y156" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA156" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>309</v>
       </c>
@@ -19047,11 +20047,11 @@
         <f t="shared" si="30"/>
         <v>5132.5070999999989</v>
       </c>
-      <c r="Y157" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA157" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>310</v>
       </c>
@@ -19118,11 +20118,11 @@
         <f t="shared" si="30"/>
         <v>2839.0260960000005</v>
       </c>
-      <c r="Y158" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA158" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>311</v>
       </c>
@@ -19187,11 +20187,11 @@
         <f t="shared" si="30"/>
         <v>13.800575000000004</v>
       </c>
-      <c r="Y159" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA159" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>312</v>
       </c>
@@ -19256,7 +20256,7 @@
         <f t="shared" si="30"/>
         <v>-1.0139197959183675</v>
       </c>
-      <c r="Y160" s="6" t="s">
+      <c r="AA160" s="6" t="s">
         <v>31</v>
       </c>
     </row>

--- a/data/2022-03-03_LakeErie_Mastersheet.xlsx
+++ b/data/2022-03-03_LakeErie_Mastersheet.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{EA2E9A16-F367-47E5-9F32-F761EF32E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11ECAE85-D764-4A2D-8D0F-766FE5F154D8}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{EA2E9A16-F367-47E5-9F32-F761EF32E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C960A308-5C04-41A5-A4B2-BEFF9300F08E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FCD5901F-55C5-46A6-83E9-A175C073FB2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{FCD5901F-55C5-46A6-83E9-A175C073FB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Fishing and Environmental data" sheetId="3" r:id="rId1"/>
     <sheet name="Fish and mussel sampling" sheetId="1" r:id="rId2"/>
-    <sheet name="Column headings" sheetId="4" r:id="rId3"/>
-    <sheet name="21 08 26 Lake Erie Mastersheet" sheetId="2" r:id="rId4"/>
+    <sheet name="Biomass estimates" sheetId="5" r:id="rId3"/>
+    <sheet name="Column headings" sheetId="4" r:id="rId4"/>
+    <sheet name="21 08 26 Lake Erie Mastersheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'21 08 26 Lake Erie Mastersheet'!$A$1:$R$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'21 08 26 Lake Erie Mastersheet'!$A$1:$AF$160</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fish and mussel sampling'!$A$1:$L$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="156">
   <si>
     <t>Sampling run</t>
   </si>
@@ -481,13 +482,34 @@
     <t>d15N</t>
   </si>
   <si>
-    <t>for fish, from stable isotopes analyses in Fisk lab - used data based on whole body or muscle analyses</t>
-  </si>
-  <si>
     <t>%N tissue</t>
   </si>
   <si>
     <t>%C tissue</t>
+  </si>
+  <si>
+    <t>for fish, from stable isotopes analyses in Fisk lab - used data based on whole body or muscle analyses. Summer data = collected in Aug. 2019, with YP average of all YP values since only have one individual tested for excretion. Fall data = collected in Oct. 2021</t>
+  </si>
+  <si>
+    <t>C:P</t>
+  </si>
+  <si>
+    <t>N:P</t>
+  </si>
+  <si>
+    <t>calculation = %C/%N*14/12</t>
+  </si>
+  <si>
+    <t>calculation = %C/%P*31/12</t>
+  </si>
+  <si>
+    <t>calculation = %N/%P*31/14</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Biomass (kg/ha)</t>
   </si>
 </sst>
 </file>
@@ -535,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -551,6 +573,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7145,16 +7171,378 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB797C5-CB47-4805-AD51-BAF5F7220E5D}">
-  <dimension ref="A1:AD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A639DD45-9E41-4F98-B389-5C28F46CFA6A}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.51570487399999998</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4.5747545680000004</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.1201708369999999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.51302409900000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.4939214089999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.85490321700000005</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.4843695000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.3469181E-2</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="6">
+        <v>8.6192599999999995E-4</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7.2614480000000002E-3</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.0975909999999998E-3</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.4088623E-2</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.100803244</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5.3227802999999997E-2</v>
+      </c>
+      <c r="C15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3.0795511000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5.4198745999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4.9459030000000001E-2</v>
+      </c>
+      <c r="C18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.18539002800000001</v>
+      </c>
+      <c r="C19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>12.975733419999999</v>
+      </c>
+      <c r="C20">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>10.91386782</v>
+      </c>
+      <c r="C21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>11.437614030000001</v>
+      </c>
+      <c r="C22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
+        <v>7.5853045139999997</v>
+      </c>
+      <c r="C23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3.9139286740000001</v>
+      </c>
+      <c r="C24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6">
+        <v>24.036114179999998</v>
+      </c>
+      <c r="C25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1.8622407329999999</v>
+      </c>
+      <c r="C26">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1.607085976</v>
+      </c>
+      <c r="C27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2.98806561</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2.6448402579999999</v>
+      </c>
+      <c r="C29">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1.893528774</v>
+      </c>
+      <c r="C30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>5.036572853</v>
+      </c>
+      <c r="C31">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB797C5-CB47-4805-AD51-BAF5F7220E5D}">
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="29" max="30" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -7198,7 +7586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>84</v>
       </c>
@@ -7212,7 +7600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>85</v>
       </c>
@@ -7220,7 +7608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -7228,7 +7616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>87</v>
       </c>
@@ -7236,47 +7624,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -7362,13 +7750,19 @@
         <v>141</v>
       </c>
       <c r="AC16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AF16" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="25:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="25:32" x14ac:dyDescent="0.35">
       <c r="Y17" t="s">
         <v>142</v>
       </c>
@@ -7379,13 +7773,19 @@
         <v>143</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -7394,24 +7794,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4782880F-19F5-4C97-B687-8149361B0730}">
-  <dimension ref="A1:AD160"/>
+  <dimension ref="A1:AF160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M126" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD1"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8.7265625" style="6"/>
     <col min="14" max="14" width="8.7265625" style="4"/>
+    <col min="29" max="30" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7485,10 +7886,10 @@
         <v>100</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>137</v>
@@ -7497,13 +7898,19 @@
         <v>141</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -7565,29 +7972,42 @@
         <v>552.55100000000004</v>
       </c>
       <c r="T2">
-        <f>(S2-AVERAGE($S$24:$S$25))*F2</f>
+        <f t="shared" ref="T2:T25" si="3">(S2-AVERAGE($S$24:$S$25))*F2</f>
         <v>1585.9156499999999</v>
       </c>
       <c r="U2">
-        <f>(T2/J2*60)/G2</f>
+        <f t="shared" ref="U2:U23" si="4">(T2/J2*60)/G2</f>
         <v>3171.8312999999998</v>
       </c>
       <c r="V2" s="6">
         <v>185.89916399999998</v>
       </c>
       <c r="W2" s="6">
-        <f>(V2-AVERAGE($V$24:$V$25))*I2</f>
+        <f t="shared" ref="W2:W25" si="5">(V2-AVERAGE($V$24:$V$25))*I2</f>
         <v>3619.2207068999992</v>
       </c>
       <c r="X2" s="6">
-        <f>(W2/J2*60)/G2</f>
+        <f t="shared" ref="X2:X23" si="6">(W2/J2*60)/G2</f>
         <v>7238.4414137999984</v>
       </c>
       <c r="AA2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>-23.46392457</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>13.6533783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>101</v>
       </c>
@@ -7649,29 +8069,44 @@
         <v>422.56400000000002</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" ref="T3:T25" si="3">(S3-AVERAGE($S$24:$S$25))*F3</f>
+        <f t="shared" si="3"/>
         <v>1195.9546500000001</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" ref="U3:U66" si="4">(T3/J3*60)/G3</f>
+        <f t="shared" si="4"/>
         <v>2391.9093000000003</v>
       </c>
       <c r="V3">
         <v>97.684474500000007</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W25" si="5">(V3-AVERAGE($V$24:$V$25))*I3</f>
+        <f t="shared" si="5"/>
         <v>1824.1009456125</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" ref="X3:X46" si="6">(W3/J3*60)/G3</f>
+        <f t="shared" si="6"/>
         <v>3648.2018912250001</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB3" s="9">
+        <v>4.9547660021985802</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>-23.579953140000001</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>13.2516865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>102</v>
       </c>
@@ -7754,8 +8189,21 @@
       <c r="AA4" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>-24.82197815</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>13.55605458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>103</v>
       </c>
@@ -7838,8 +8286,23 @@
       <c r="AA5" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB5" s="9">
+        <v>4.7499695394714312</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>-24.048745220000001</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>12.74130587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>104</v>
       </c>
@@ -7922,8 +8385,23 @@
       <c r="AA6" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB6" s="9">
+        <v>3.2918023079999998</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>-23.199938060000001</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>13.32790164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>105</v>
       </c>
@@ -8006,8 +8484,23 @@
       <c r="AA7" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB7" s="9">
+        <v>3.4736409730000002</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>-23.750301650000001</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>12.46836497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>107</v>
       </c>
@@ -8090,8 +8583,14 @@
       <c r="AA8" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>108</v>
       </c>
@@ -8174,8 +8673,14 @@
       <c r="AA9" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>109</v>
       </c>
@@ -8258,8 +8763,14 @@
       <c r="AA10" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>110</v>
       </c>
@@ -8342,8 +8853,14 @@
       <c r="AA11" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>111</v>
       </c>
@@ -8426,8 +8943,17 @@
       <c r="AA12" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>112</v>
       </c>
@@ -8510,8 +9036,17 @@
       <c r="AA13" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>113</v>
       </c>
@@ -8584,7 +9119,7 @@
         <v>77.94361499999998</v>
       </c>
       <c r="W14" s="6">
-        <f>(V14-AVERAGE($V$24:$V$25))*I14</f>
+        <f t="shared" si="5"/>
         <v>766.11325517249975</v>
       </c>
       <c r="X14" s="6">
@@ -8594,8 +9129,17 @@
       <c r="AA14" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>114</v>
       </c>
@@ -8678,8 +9222,14 @@
       <c r="AA15" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>115</v>
       </c>
@@ -8762,8 +9312,14 @@
       <c r="AA16" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>116</v>
       </c>
@@ -8846,8 +9402,14 @@
       <c r="AA17" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>117</v>
       </c>
@@ -8930,8 +9492,14 @@
       <c r="AA18" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>118</v>
       </c>
@@ -9014,8 +9582,14 @@
       <c r="AA19" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>119</v>
       </c>
@@ -9098,8 +9672,14 @@
       <c r="AA20" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>120</v>
       </c>
@@ -9182,8 +9762,14 @@
       <c r="AA21" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>121</v>
       </c>
@@ -9266,8 +9852,14 @@
       <c r="AA22" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>122</v>
       </c>
@@ -9350,8 +9942,14 @@
       <c r="AA23" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>123</v>
       </c>
@@ -9430,8 +10028,14 @@
       <c r="AA24" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>124</v>
       </c>
@@ -9510,8 +10114,14 @@
       <c r="AA25" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>125</v>
       </c>
@@ -9573,29 +10183,44 @@
         <v>761.06412</v>
       </c>
       <c r="T26" s="6">
-        <f>(S26-AVERAGE($S$30,$S$32))*F26</f>
+        <f t="shared" ref="T26:T32" si="8">(S26-AVERAGE($S$30,$S$32))*F26</f>
         <v>1491.9249600000001</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="4"/>
+        <f>(T26/J26*60)/G26</f>
         <v>2295.269169230769</v>
       </c>
       <c r="V26">
         <v>149.18553600000001</v>
       </c>
       <c r="W26" s="6">
-        <f>(V26-AVERAGE($V$30,(5.1/2)))*I26</f>
+        <f t="shared" ref="W26:W32" si="9">(V26-AVERAGE($V$30,(5.1/2)))*I26</f>
         <v>1883.63350614</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" si="6"/>
+        <f>(W26/J26*60)/G26</f>
         <v>2897.8977017538464</v>
       </c>
       <c r="AA26" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB26" s="9">
+        <v>3.3495248009999998</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>-23.99557239</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>12.90011838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>126</v>
       </c>
@@ -9658,29 +10283,44 @@
         <v>60.650639999999989</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" ref="T27:T32" si="8">(S27-AVERAGE($S$30,$S$32))*F27</f>
+        <f t="shared" si="8"/>
         <v>13.664699999999998</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="4"/>
+        <f>(T27/J27*60)/G27</f>
         <v>1.2057088235294116</v>
       </c>
       <c r="V27">
         <v>25.568419500000001</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" ref="W27:W32" si="9">(V27-AVERAGE($V$30,(5.1/2)))*I27</f>
+        <f t="shared" si="9"/>
         <v>279.58296316500002</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="6"/>
+        <f>(W27/J27*60)/G27</f>
         <v>24.669084985147059</v>
+      </c>
+      <c r="Y27">
+        <v>47.416577263508067</v>
+      </c>
+      <c r="Z27">
+        <v>10.931760593327386</v>
       </c>
       <c r="AA27">
         <v>1.3334962267205783</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB27">
+        <v>5.0604236772735094</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>91.858396104080668</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>18.152313316495427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>127</v>
       </c>
@@ -9746,7 +10386,7 @@
         <v>14.679791999999997</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="4"/>
+        <f>(T28/J28*60)/G28</f>
         <v>0.98964889887640428</v>
       </c>
       <c r="V28">
@@ -9757,14 +10397,31 @@
         <v>242.05041696000001</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" si="6"/>
+        <f>(W28/J28*60)/G28</f>
         <v>16.318005637752812</v>
+      </c>
+      <c r="Y28">
+        <v>46.667739263042762</v>
+      </c>
+      <c r="Z28">
+        <v>10.924129186813214</v>
       </c>
       <c r="AA28">
         <v>1.3731681167778587</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB28" s="6">
+        <v>4.9841011688053989</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>87.795751267818147</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>17.615572997814706</v>
+      </c>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>128</v>
       </c>
@@ -9830,7 +10487,7 @@
         <v>12.103019999999995</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="4"/>
+        <f>(T29/J29*60)/G29</f>
         <v>0.82520590909090874</v>
       </c>
       <c r="V29">
@@ -9841,14 +10498,31 @@
         <v>62.872599487500011</v>
       </c>
       <c r="X29" s="6">
-        <f t="shared" si="6"/>
+        <f>(W29/J29*60)/G29</f>
         <v>4.2867681468750005</v>
+      </c>
+      <c r="Y29">
+        <v>43.39079030786408</v>
+      </c>
+      <c r="Z29">
+        <v>10.27916890394612</v>
       </c>
       <c r="AA29">
         <v>1.2970090764968623</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB29" s="6">
+        <v>4.9259800057448437</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>86.424125315096333</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>17.548849326647638</v>
+      </c>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>129</v>
       </c>
@@ -9927,8 +10601,17 @@
       <c r="AA30" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>130</v>
       </c>
@@ -9994,7 +10677,7 @@
         <v>1928.6748000000002</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="4"/>
+        <f>(T31/J31*60)/G31</f>
         <v>3214.4580000000005</v>
       </c>
       <c r="V31">
@@ -10005,14 +10688,29 @@
         <v>603.65571003000014</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" si="6"/>
+        <f>(W31/J31*60)/G31</f>
         <v>1006.0928500500004</v>
       </c>
       <c r="AA31" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB31" s="6">
+        <v>3.3357466021111106</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>-23.614508616666669</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>13.141214462222223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>131</v>
       </c>
@@ -10091,8 +10789,17 @@
       <c r="AA32" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>132</v>
       </c>
@@ -10154,29 +10861,44 @@
         <v>1042.4267999999997</v>
       </c>
       <c r="T33" s="6">
-        <f>(S33-AVERAGE($S$43,$S$47))*F33</f>
+        <f t="shared" ref="T33:T47" si="13">(S33-AVERAGE($S$43,$S$47))*F33</f>
         <v>508.52204999999987</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U33:U42" si="14">(T33/J33*60)/G33</f>
         <v>924.58554545454524</v>
       </c>
       <c r="V33">
         <v>644.356539</v>
       </c>
       <c r="W33" s="6">
-        <f>(V33-AVERAGE($V$43,(5.1/2)))*I33</f>
+        <f t="shared" ref="W33:W47" si="15">(V33-AVERAGE($V$43,(5.1/2)))*I33</f>
         <v>7240.9161128849992</v>
       </c>
       <c r="X33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="X33:X42" si="16">(W33/J33*60)/G33</f>
         <v>13165.302023427272</v>
       </c>
       <c r="AA33" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB33" s="9">
+        <v>3.2715407779999999</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE33" s="9">
+        <v>-23.983607960000001</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>12.33139493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>133</v>
       </c>
@@ -10238,29 +10960,38 @@
         <v>889.12187999999992</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" ref="T34:T47" si="13">(S34-AVERAGE($S$43,$S$47))*F34</f>
+        <f t="shared" si="13"/>
         <v>604.61742599999991</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1099.3044109090906</v>
       </c>
       <c r="V34">
         <v>441.09126150000003</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" ref="W34:W47" si="14">(V34-AVERAGE($V$43,(5.1/2)))*I34</f>
+        <f t="shared" si="15"/>
         <v>4944.5931356400006</v>
       </c>
       <c r="X34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8990.1693375272735</v>
       </c>
       <c r="AA34" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>134</v>
       </c>
@@ -10326,25 +11057,40 @@
         <v>3614.5083599999989</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>7229.0167199999978</v>
       </c>
       <c r="V35">
         <v>319.72233900000003</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3572.120067195001</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7144.2401343900019</v>
       </c>
       <c r="AA35" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB35" s="9">
+        <v>3.175945595</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>-23.480379859999999</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>11.50440961</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>135</v>
       </c>
@@ -10410,25 +11156,40 @@
         <v>2899.2589199999993</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>5116.3392705882343</v>
       </c>
       <c r="V36">
         <v>585.33213899999998</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6641.1199398150002</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>11719.623423202942</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB36" s="9">
+        <v>3.390813557</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE36" s="9">
+        <v>-24.30874549</v>
+      </c>
+      <c r="AF36" s="9">
+        <v>10.85945626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>136</v>
       </c>
@@ -10494,25 +11255,40 @@
         <v>1566.2348999999997</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>2847.6998181818176</v>
       </c>
       <c r="V37">
         <v>310.13087400000001</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3496.4425356975003</v>
       </c>
       <c r="X37" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>6357.1682467227274</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB37" s="9">
+        <v>3.1553742640000002</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE37" s="9">
+        <v>-23.583802439999999</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>12.325439190000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>137</v>
       </c>
@@ -10578,25 +11354,31 @@
         <v>1412.2792799999997</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>2648.0236499999996</v>
       </c>
       <c r="V38">
         <v>377.27112900000003</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4271.5984991250007</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8009.2471858593763</v>
       </c>
       <c r="AA38" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>138</v>
       </c>
@@ -10662,25 +11444,31 @@
         <v>361.98440999999997</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>723.96881999999994</v>
       </c>
       <c r="V39">
         <v>586.80774900000006</v>
       </c>
       <c r="W39" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6721.9382268674999</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>13443.876453735</v>
       </c>
       <c r="AA39" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>139</v>
       </c>
@@ -10746,25 +11534,31 @@
         <v>1665.9221399999997</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1665.9221399999997</v>
       </c>
       <c r="V40">
         <v>279.88086899999996</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3154.3510400024998</v>
       </c>
       <c r="X40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3154.3510400024998</v>
       </c>
       <c r="AA40" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>140</v>
       </c>
@@ -10830,25 +11624,34 @@
         <v>318.32244000000003</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>308.05397419354841</v>
       </c>
       <c r="V41">
         <v>64.321693499999995</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>675.01974736499983</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>653.24491680483857</v>
       </c>
       <c r="AA41" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB41">
+        <v>4.8402058343818286</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD41" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>141</v>
       </c>
@@ -10915,25 +11718,40 @@
         <v>13.6647</v>
       </c>
       <c r="U42" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1.1580254237288135</v>
       </c>
       <c r="V42">
         <v>0.80128950000000021</v>
       </c>
       <c r="W42" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-67.354989450000019</v>
       </c>
       <c r="X42" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>-5.7080499533898319</v>
+      </c>
+      <c r="Y42">
+        <v>46.456594322914263</v>
+      </c>
+      <c r="Z42">
+        <v>10.5067899672907</v>
       </c>
       <c r="AA42" s="6">
         <v>1.422656205454786</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB42">
+        <v>5.1585058411596094</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>84.358306811843946</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>16.353237583591071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>142</v>
       </c>
@@ -11003,7 +11821,7 @@
         <v>9.1055625000000013</v>
       </c>
       <c r="W43" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.430601562500001</v>
       </c>
       <c r="X43" s="6" t="s">
@@ -11012,8 +11830,14 @@
       <c r="AA43" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD43" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>143</v>
       </c>
@@ -11080,25 +11904,40 @@
         <v>12.675635999999997</v>
       </c>
       <c r="U44" s="6">
-        <f t="shared" si="4"/>
+        <f>(T44/J44*60)/G44</f>
         <v>1.536440727272727</v>
       </c>
       <c r="V44">
         <v>8.3771175000000007</v>
       </c>
       <c r="W44" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34.008145574999993</v>
       </c>
       <c r="X44" s="6">
-        <f t="shared" si="6"/>
+        <f>(W44/J44*60)/G44</f>
         <v>4.1221994636363624</v>
+      </c>
+      <c r="Y44">
+        <v>45.642309034012264</v>
+      </c>
+      <c r="Z44">
+        <v>11.001706147676558</v>
       </c>
       <c r="AA44">
         <v>1.1525255462158601</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB44">
+        <v>4.8402058343818286</v>
+      </c>
+      <c r="AC44" s="6">
+        <v>102.30514952575412</v>
+      </c>
+      <c r="AD44" s="6">
+        <v>21.136989835544078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>144</v>
       </c>
@@ -11165,25 +12004,40 @@
         <v>9.0837719999999997</v>
       </c>
       <c r="U45" s="6">
-        <f t="shared" si="4"/>
+        <f>(T45/J45*60)/G45</f>
         <v>1.1848398260869566</v>
       </c>
       <c r="V45">
         <v>25.131352500000002</v>
       </c>
       <c r="W45" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>256.737497625</v>
       </c>
       <c r="X45" s="6">
-        <f t="shared" si="6"/>
+        <f>(W45/J45*60)/G45</f>
         <v>33.487499690217398</v>
+      </c>
+      <c r="Y45">
+        <v>46.274520654457682</v>
+      </c>
+      <c r="Z45">
+        <v>10.89603680342548</v>
       </c>
       <c r="AA45">
         <v>1.4162833266498689</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB45">
+        <v>4.9547660021985802</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>84.405789040426541</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>17.035389870208533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>145</v>
       </c>
@@ -11250,25 +12104,40 @@
         <v>10.385172000000001</v>
       </c>
       <c r="U46" s="6">
-        <f t="shared" si="4"/>
+        <f>(T46/J46*60)/G46</f>
         <v>0.76927200000000007</v>
       </c>
       <c r="V46">
         <v>12.383564999999997</v>
       </c>
       <c r="W46" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>87.454155224999951</v>
       </c>
       <c r="X46" s="6">
-        <f t="shared" si="6"/>
+        <f>(W46/J46*60)/G46</f>
         <v>6.4780855722222181</v>
+      </c>
+      <c r="Y46">
+        <v>45.416770124778239</v>
+      </c>
+      <c r="Z46">
+        <v>11.155228490028621</v>
       </c>
       <c r="AA46">
         <v>1.0982607475444324</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB46">
+        <v>4.7499695394714312</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>106.82950876465738</v>
+      </c>
+      <c r="AD46" s="6">
+        <v>22.490891293612453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>146</v>
       </c>
@@ -11338,7 +12207,7 @@
         <v>-5.7547154999999997</v>
       </c>
       <c r="W47" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-153.46808193750002</v>
       </c>
       <c r="X47" s="6" t="s">
@@ -11347,8 +12216,14 @@
       <c r="AA47" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD47" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>200</v>
       </c>
@@ -11390,7 +12265,7 @@
         <v>3</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" ref="N48:N92" si="15">M48*0.25</f>
+        <f t="shared" ref="N48:N92" si="17">M48*0.25</f>
         <v>0.75</v>
       </c>
       <c r="O48" s="2" t="s">
@@ -11400,22 +12275,22 @@
         <v>35.455256999999996</v>
       </c>
       <c r="Q48" s="6">
-        <f t="shared" ref="Q48:Q80" si="16">(P48-AVERAGE($P$93,$P$94))*F48</f>
+        <f t="shared" ref="Q48:Q80" si="18">(P48-AVERAGE($P$93,$P$94))*F48</f>
         <v>7.332511274999999</v>
       </c>
       <c r="R48" s="6">
-        <f t="shared" ref="R48:R80" si="17">(Q48/J48*60)/G48</f>
+        <f t="shared" ref="R48:R80" si="19">(Q48/J48*60)/G48</f>
         <v>10.730504304878048</v>
       </c>
       <c r="S48">
         <v>111.78209000000001</v>
       </c>
       <c r="T48" s="6">
-        <f>(S48-AVERAGE($S$93,$S$94))*F48</f>
+        <f t="shared" ref="T48:T94" si="20">(S48-AVERAGE($S$93,$S$94))*F48</f>
         <v>28.407078000000002</v>
       </c>
       <c r="U48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U48:U92" si="21">(T48/J48*60)/G48</f>
         <v>41.571333658536588</v>
       </c>
       <c r="Y48" s="8">
@@ -11430,14 +12305,20 @@
       <c r="AB48">
         <v>3.5401087090966885</v>
       </c>
-      <c r="AC48" s="8">
+      <c r="AC48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE48" s="8">
         <v>-19.862049406277322</v>
       </c>
-      <c r="AD48" s="8">
+      <c r="AF48" s="8">
         <v>8.3847586859687198</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>201</v>
       </c>
@@ -11479,7 +12360,7 @@
         <v>2</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="O49" s="2" t="s">
@@ -11489,22 +12370,22 @@
         <v>25.404004499999999</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.3171355250000003</v>
       </c>
       <c r="R49" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.3177593048780496</v>
       </c>
       <c r="S49">
         <v>148.56292000000002</v>
       </c>
       <c r="T49" s="6">
-        <f t="shared" ref="T49:T94" si="18">(S49-AVERAGE($S$93,$S$94))*F49</f>
+        <f t="shared" si="20"/>
         <v>39.441327000000001</v>
       </c>
       <c r="U49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>57.719015121951223</v>
       </c>
       <c r="Y49" s="8">
@@ -11519,14 +12400,20 @@
       <c r="AB49">
         <v>3.5385779482303192</v>
       </c>
-      <c r="AC49" s="8">
+      <c r="AC49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE49" s="8">
         <v>-18.679240911920768</v>
       </c>
-      <c r="AD49" s="8">
+      <c r="AF49" s="8">
         <v>8.7270334952932984</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>202</v>
       </c>
@@ -11568,7 +12455,7 @@
         <v>3</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O50" s="2" t="s">
@@ -11578,22 +12465,22 @@
         <v>18.833917500000002</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.3461094250000007</v>
       </c>
       <c r="R50" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.4333308658536597</v>
       </c>
       <c r="S50">
         <v>104.35124000000002</v>
       </c>
       <c r="T50" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26.177823000000004</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>38.309009268292691</v>
       </c>
       <c r="Y50" s="8">
@@ -11608,14 +12495,20 @@
       <c r="AB50">
         <v>3.7425240717205184</v>
       </c>
-      <c r="AC50" s="8">
+      <c r="AC50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE50" s="8">
         <v>-20.053856189145954</v>
       </c>
-      <c r="AD50" s="8">
+      <c r="AF50" s="8">
         <v>9.1981531322659187</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>203</v>
       </c>
@@ -11657,7 +12550,7 @@
         <v>4</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O51" s="2" t="s">
@@ -11667,22 +12560,22 @@
         <v>16.382392500000002</v>
       </c>
       <c r="Q51" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6106519250000009</v>
       </c>
       <c r="R51" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.3570515975609769</v>
       </c>
       <c r="S51">
         <v>192.6722</v>
       </c>
       <c r="T51" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>52.674111000000003</v>
       </c>
       <c r="U51" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>77.084064878048778</v>
       </c>
       <c r="Y51" s="8">
@@ -11697,14 +12590,20 @@
       <c r="AB51">
         <v>3.3916247713078378</v>
       </c>
-      <c r="AC51" s="8">
+      <c r="AC51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE51" s="8">
         <v>-17.393536070504485</v>
       </c>
-      <c r="AD51" s="8">
+      <c r="AF51" s="8">
         <v>7.8831490516137386</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>204</v>
       </c>
@@ -11746,7 +12645,7 @@
         <v>3</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O52" s="2" t="s">
@@ -11756,22 +12655,22 @@
         <v>13.342501499999999</v>
       </c>
       <c r="Q52" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.69868462500000006</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.022465304878049</v>
       </c>
       <c r="S52">
         <v>106.68665</v>
       </c>
       <c r="T52" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26.878446</v>
       </c>
       <c r="U52" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>39.334311219512195</v>
       </c>
       <c r="Y52" s="8">
@@ -11786,14 +12685,20 @@
       <c r="AB52">
         <v>4.0379686609446237</v>
       </c>
-      <c r="AC52" s="8">
+      <c r="AC52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE52" s="8">
         <v>-19.45645798000303</v>
       </c>
-      <c r="AD52" s="8">
+      <c r="AF52" s="8">
         <v>7.8546261508366904</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>205</v>
       </c>
@@ -11834,7 +12739,7 @@
         <v>3</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O53" s="2" t="s">
@@ -11844,22 +12749,22 @@
         <v>27.561346499999999</v>
       </c>
       <c r="Q53" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9643381250000003</v>
       </c>
       <c r="R53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.4465071875</v>
       </c>
       <c r="S53">
         <v>209.47904</v>
       </c>
       <c r="T53" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>57.716162999999995</v>
       </c>
       <c r="U53" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>86.574244499999992</v>
       </c>
       <c r="Y53" s="8">
@@ -11874,14 +12779,20 @@
       <c r="AB53">
         <v>3.4903485964982646</v>
       </c>
-      <c r="AC53" s="8">
+      <c r="AC53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE53" s="8">
         <v>-20.02688336030505</v>
       </c>
-      <c r="AD53" s="8">
+      <c r="AF53" s="8">
         <v>7.8438071195074652</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>206</v>
       </c>
@@ -11922,7 +12833,7 @@
         <v>3</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O54" s="6" t="s">
@@ -11932,22 +12843,22 @@
         <v>19.863558000000001</v>
       </c>
       <c r="Q54" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.6550015750000004</v>
       </c>
       <c r="R54" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.3054079594594601</v>
       </c>
       <c r="S54">
         <v>63.534300000000002</v>
       </c>
       <c r="T54" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13.932741</v>
       </c>
       <c r="U54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>22.593634054054053</v>
       </c>
       <c r="Y54" s="8">
@@ -11962,14 +12873,20 @@
       <c r="AB54">
         <v>3.4478346005171758</v>
       </c>
-      <c r="AC54" s="8">
+      <c r="AC54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE54" s="8">
         <v>-19.302612956243816</v>
       </c>
-      <c r="AD54" s="8">
+      <c r="AF54" s="8">
         <v>9.9633537117329318</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>207</v>
       </c>
@@ -12011,7 +12928,7 @@
         <v>3</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O55" s="6" t="s">
@@ -12021,22 +12938,22 @@
         <v>25.747218</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.4200995750000001</v>
       </c>
       <c r="R55" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.979104592105263</v>
       </c>
       <c r="S55">
         <v>116.23076</v>
       </c>
       <c r="T55" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29.741678999999998</v>
       </c>
       <c r="U55" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>46.960545789473677</v>
       </c>
       <c r="Y55" s="8">
@@ -12051,14 +12968,20 @@
       <c r="AB55">
         <v>3.2855312744485086</v>
       </c>
-      <c r="AC55" s="8">
+      <c r="AC55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE55" s="8">
         <v>-16.767167045199113</v>
       </c>
-      <c r="AD55" s="8">
+      <c r="AF55" s="8">
         <v>7.7965968009799376</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>208</v>
       </c>
@@ -12100,7 +13023,7 @@
         <v>2</v>
       </c>
       <c r="N56" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="O56" s="6" t="s">
@@ -12110,22 +13033,22 @@
         <v>31.336694999999999</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.0969426750000002</v>
       </c>
       <c r="R56" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.8869340675675677</v>
       </c>
       <c r="S56">
         <v>63.674919999999986</v>
       </c>
       <c r="T56" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13.974926999999996</v>
       </c>
       <c r="U56" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>22.662043783783776</v>
       </c>
       <c r="Y56" s="8">
@@ -12140,14 +13063,20 @@
       <c r="AB56">
         <v>3.3760073762288862</v>
       </c>
-      <c r="AC56" s="8">
+      <c r="AC56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE56" s="8">
         <v>-17.117813820130827</v>
       </c>
-      <c r="AD56" s="8">
+      <c r="AF56" s="8">
         <v>8.0729738740265073</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>209</v>
       </c>
@@ -12189,7 +13118,7 @@
         <v>2</v>
       </c>
       <c r="N57" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="O57" s="6" t="s">
@@ -12199,22 +13128,22 @@
         <v>38.4461175</v>
       </c>
       <c r="Q57" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.2297694250000006</v>
       </c>
       <c r="R57" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>12.994372776315791</v>
       </c>
       <c r="S57">
         <v>114.21851999999998</v>
       </c>
       <c r="T57" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29.138006999999995</v>
       </c>
       <c r="U57" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>46.007379473684203</v>
       </c>
       <c r="Y57" s="8">
@@ -12229,14 +13158,20 @@
       <c r="AB57">
         <v>3.3314131710446855</v>
       </c>
-      <c r="AC57" s="8">
+      <c r="AC57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE57" s="8">
         <v>-18.102821569654104</v>
       </c>
-      <c r="AD57" s="8">
+      <c r="AF57" s="8">
         <v>8.5932709261319697</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>210</v>
       </c>
@@ -12278,7 +13213,7 @@
         <v>3</v>
       </c>
       <c r="N58" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O58" s="6" t="s">
@@ -12288,22 +13223,22 @@
         <v>13.587654000000001</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.77223037500000047</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.2193111184210532</v>
       </c>
       <c r="S58">
         <v>70.577699999999993</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>16.045760999999995</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>25.335412105263153</v>
       </c>
       <c r="Y58" s="8">
@@ -12318,14 +13253,20 @@
       <c r="AB58">
         <v>3.6339981567739645</v>
       </c>
-      <c r="AC58" s="8">
+      <c r="AC58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE58" s="8">
         <v>-20.224684105138326</v>
       </c>
-      <c r="AD58" s="8">
+      <c r="AF58" s="8">
         <v>10.514140761220755</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>211</v>
       </c>
@@ -12366,7 +13307,7 @@
         <v>4</v>
       </c>
       <c r="N59" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O59" s="6" t="s">
@@ -12376,22 +13317,22 @@
         <v>45.016204500000008</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10.200795525000004</v>
       </c>
       <c r="R59" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>15.693531576923084</v>
       </c>
       <c r="S59">
         <v>89.192400000000006</v>
       </c>
       <c r="T59" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21.630171000000001</v>
       </c>
       <c r="U59" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>33.277186153846159</v>
       </c>
       <c r="Y59" s="8">
@@ -12406,14 +13347,20 @@
       <c r="AB59">
         <v>3.3742569713068211</v>
       </c>
-      <c r="AC59" s="8">
+      <c r="AC59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE59" s="8">
         <v>-17.008923511106449</v>
       </c>
-      <c r="AD59" s="8">
+      <c r="AF59" s="8">
         <v>8.3454167538624482</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>212</v>
       </c>
@@ -12454,7 +13401,7 @@
         <v>2</v>
       </c>
       <c r="N60" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="O60" s="6" t="s">
@@ -12464,22 +13411,22 @@
         <v>29.375474999999998</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.5085766749999996</v>
       </c>
       <c r="R60" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.4432742999999988</v>
       </c>
       <c r="S60">
         <v>76.620659999999987</v>
       </c>
       <c r="T60" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>17.858648999999996</v>
       </c>
       <c r="U60" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>30.614826857142855</v>
       </c>
       <c r="Y60" s="8">
@@ -12494,14 +13441,20 @@
       <c r="AB60">
         <v>3.5217819048567391</v>
       </c>
-      <c r="AC60" s="8">
+      <c r="AC60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE60" s="8">
         <v>-19.060856490336484</v>
       </c>
-      <c r="AD60" s="8">
+      <c r="AF60" s="8">
         <v>7.365802644416247</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>213</v>
       </c>
@@ -12542,7 +13495,7 @@
         <v>3</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O61" s="6" t="s">
@@ -12552,22 +13505,22 @@
         <v>31.336694999999999</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.0969426750000002</v>
       </c>
       <c r="R61" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10.451901728571428</v>
       </c>
       <c r="S61">
         <v>103.09180000000001</v>
       </c>
       <c r="T61" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25.799991000000002</v>
       </c>
       <c r="U61" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>44.228556000000005</v>
       </c>
       <c r="Y61">
@@ -12582,14 +13535,20 @@
       <c r="AB61">
         <v>3.344076243367573</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE61">
         <v>-17.951307531103364</v>
       </c>
-      <c r="AD61">
+      <c r="AF61">
         <v>8.2818139636239732</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>214</v>
       </c>
@@ -12630,7 +13589,7 @@
         <v>4</v>
       </c>
       <c r="N62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O62" s="6" t="s">
@@ -12640,22 +13599,22 @@
         <v>19.618405499999998</v>
       </c>
       <c r="Q62" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.5814558249999995</v>
       </c>
       <c r="R62" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.3024263749999996</v>
       </c>
       <c r="S62">
         <v>205.66004999999998</v>
       </c>
       <c r="T62" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>56.570465999999996</v>
       </c>
       <c r="U62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>94.284109999999998</v>
       </c>
       <c r="Y62">
@@ -12670,14 +13629,20 @@
       <c r="AB62">
         <v>3.4983154526609512</v>
       </c>
-      <c r="AC62">
+      <c r="AC62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE62">
         <v>-15.374569882079996</v>
       </c>
-      <c r="AD62">
+      <c r="AF62">
         <v>7.7415180960311538</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>215</v>
       </c>
@@ -12718,7 +13683,7 @@
         <v>2</v>
       </c>
       <c r="N63" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="O63" s="6" t="s">
@@ -12728,22 +13693,22 @@
         <v>16.725606000000003</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7136159750000011</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.778836716216218</v>
       </c>
       <c r="S63">
         <v>88.437749999999994</v>
       </c>
       <c r="T63" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21.403775999999997</v>
       </c>
       <c r="U63" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>34.708825945945939</v>
       </c>
       <c r="Y63">
@@ -12758,14 +13723,20 @@
       <c r="AB63">
         <v>3.5133357762640212</v>
       </c>
-      <c r="AC63">
+      <c r="AC63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE63">
         <v>-20.312595547286449</v>
       </c>
-      <c r="AD63">
+      <c r="AF63">
         <v>9.8787685577044435</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>216</v>
       </c>
@@ -12806,7 +13777,7 @@
         <v>2</v>
       </c>
       <c r="N64" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="O64" s="6" t="s">
@@ -12816,22 +13787,22 @@
         <v>17.559124499999999</v>
       </c>
       <c r="Q64" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.9636715250000001</v>
       </c>
       <c r="R64" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.184332202702703</v>
       </c>
       <c r="S64">
         <v>88.793519999999987</v>
       </c>
       <c r="T64" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21.510506999999993</v>
       </c>
       <c r="U64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>34.881903243243237</v>
       </c>
       <c r="Y64">
@@ -12846,14 +13817,20 @@
       <c r="AB64">
         <v>3.5785273945345426</v>
       </c>
-      <c r="AC64">
+      <c r="AC64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE64">
         <v>-16.501434731433196</v>
       </c>
-      <c r="AD64">
+      <c r="AF64">
         <v>8.9266938007326342</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>217</v>
       </c>
@@ -12894,7 +13871,7 @@
         <v>3</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="O65" s="6" t="s">
@@ -12904,22 +13881,22 @@
         <v>23.589876</v>
       </c>
       <c r="Q65" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.7728969750000001</v>
       </c>
       <c r="R65" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.95720575</v>
       </c>
       <c r="S65">
         <v>181.00815000000003</v>
       </c>
       <c r="T65" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>49.174896000000011</v>
       </c>
       <c r="U65" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>77.644572631578967</v>
       </c>
       <c r="Y65">
@@ -12934,14 +13911,20 @@
       <c r="AB65">
         <v>3.9229835142807796</v>
       </c>
-      <c r="AC65">
+      <c r="AC65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE65">
         <v>-19.761151046539133</v>
       </c>
-      <c r="AD65">
+      <c r="AF65">
         <v>8.0562535528813406</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>218</v>
       </c>
@@ -12982,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="N66" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="O66" s="6" t="s">
@@ -12992,22 +13975,22 @@
         <v>17.215910999999998</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.8607074749999999</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.9379591710526314</v>
       </c>
       <c r="S66">
         <v>43.661850000000001</v>
       </c>
       <c r="T66" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.9710059999999991</v>
       </c>
       <c r="U66" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>12.585798947368419</v>
       </c>
       <c r="Y66">
@@ -13022,14 +14005,20 @@
       <c r="AB66">
         <v>3.7296403324758467</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE66">
         <v>-17.658269390609625</v>
       </c>
-      <c r="AD66">
+      <c r="AF66">
         <v>7.7621726103869495</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>219</v>
       </c>
@@ -13070,29 +14059,29 @@
         <v>665</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>166.25</v>
       </c>
       <c r="P67">
         <v>123.710157</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>676.17962549999993</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1229.4175009090907</v>
       </c>
       <c r="S67">
         <v>757.84141999999997</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4444.4975400000003</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" ref="U67:U130" si="19">(T67/J67*60)/G67</f>
+        <f t="shared" si="21"/>
         <v>8080.9046181818194</v>
       </c>
       <c r="Y67">
@@ -13107,14 +14096,20 @@
       <c r="AB67">
         <v>3.3611346116063276</v>
       </c>
-      <c r="AC67" s="8">
+      <c r="AC67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE67" s="8">
         <v>-16.16477386775232</v>
       </c>
-      <c r="AD67" s="8">
+      <c r="AF67" s="8">
         <v>7.7366003545178721</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>220</v>
       </c>
@@ -13155,29 +14150,29 @@
         <v>482</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>120.5</v>
       </c>
       <c r="P68">
         <v>58.254439500000004</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>236.20443375000002</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>457.16987177419355</v>
       </c>
       <c r="S68">
         <v>469.95420000000001</v>
       </c>
       <c r="T68" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2264.31185</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4382.5390645161297</v>
       </c>
       <c r="Y68">
@@ -13192,14 +14187,20 @@
       <c r="AB68">
         <v>3.3875689945032876</v>
       </c>
-      <c r="AC68" s="8">
+      <c r="AC68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE68" s="8">
         <v>-17.541387132299054</v>
       </c>
-      <c r="AD68" s="8">
+      <c r="AF68" s="8">
         <v>9.6033750329605319</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>221</v>
       </c>
@@ -13240,36 +14241,42 @@
         <v>395</v>
       </c>
       <c r="N69" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>98.75</v>
       </c>
       <c r="P69">
         <v>74.385473999999988</v>
       </c>
       <c r="Q69" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>316.85960624999996</v>
       </c>
       <c r="R69" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>500.3046414473684</v>
       </c>
       <c r="S69">
         <v>290.51519999999999</v>
       </c>
       <c r="T69" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1367.1168499999999</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2158.6055526315786</v>
       </c>
       <c r="AA69" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD69" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>222</v>
       </c>
@@ -13310,36 +14317,42 @@
         <v>422</v>
       </c>
       <c r="N70" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>105.5</v>
       </c>
       <c r="P70">
         <v>51.439200000000007</v>
       </c>
       <c r="Q70" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>202.12823625000004</v>
       </c>
       <c r="R70" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>319.14984671052639</v>
       </c>
       <c r="S70">
         <v>287.99938999999995</v>
       </c>
       <c r="T70" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1354.5377999999996</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2138.7438947368414</v>
       </c>
       <c r="AA70" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>223</v>
       </c>
@@ -13380,36 +14393,42 @@
         <v>421</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>105.25</v>
       </c>
       <c r="P71">
         <v>24.570486000000002</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>67.784666250000015</v>
       </c>
       <c r="R71" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>109.92108040540542</v>
       </c>
       <c r="S71">
         <v>384.38813000000005</v>
       </c>
       <c r="T71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1836.4815000000001</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2978.0781081081082</v>
       </c>
       <c r="AA71" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD71" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>224</v>
       </c>
@@ -13450,36 +14469,42 @@
         <v>338</v>
       </c>
       <c r="N72" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>84.5</v>
       </c>
       <c r="P72">
         <v>61.392391500000002</v>
       </c>
       <c r="Q72" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>251.89419375</v>
       </c>
       <c r="R72" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>431.8186178571429</v>
       </c>
       <c r="S72">
         <v>252.68067999999997</v>
       </c>
       <c r="T72" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1177.94425</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2019.3329999999999</v>
       </c>
       <c r="AA72" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC72" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>225</v>
       </c>
@@ -13520,36 +14545,42 @@
         <v>394</v>
       </c>
       <c r="N73" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>98.5</v>
       </c>
       <c r="P73">
         <v>63.647794500000003</v>
       </c>
       <c r="Q73" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>263.17120875000001</v>
       </c>
       <c r="R73" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>464.41978014705887</v>
       </c>
       <c r="S73">
         <v>254.7123</v>
       </c>
       <c r="T73" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1188.1023500000001</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2096.6512058823528</v>
       </c>
       <c r="AA73" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>226</v>
       </c>
@@ -13590,36 +14621,42 @@
         <v>485</v>
       </c>
       <c r="N74" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>121.25</v>
       </c>
       <c r="P74">
         <v>26.2865535</v>
       </c>
       <c r="Q74" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>76.36500375</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>147.80323306451612</v>
       </c>
       <c r="S74">
         <v>403.35567999999995</v>
       </c>
       <c r="T74" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1931.3192499999996</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3738.0372580645153</v>
       </c>
       <c r="AA74" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>227</v>
       </c>
@@ -13660,36 +14697,42 @@
         <v>400</v>
       </c>
       <c r="N75" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="P75">
         <v>32.709549000000003</v>
       </c>
       <c r="Q75" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>108.47998125000002</v>
       </c>
       <c r="R75" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>216.95996250000005</v>
       </c>
       <c r="S75">
         <v>151.01036000000002</v>
       </c>
       <c r="T75" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>669.59265000000016</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1339.1853000000003</v>
       </c>
       <c r="AA75" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD75" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>228</v>
       </c>
@@ -13730,36 +14773,42 @@
         <v>417</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>104.25</v>
       </c>
       <c r="P76">
         <v>44.623960500000003</v>
       </c>
       <c r="Q76" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>168.05203875000004</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>347.69387327586219</v>
       </c>
       <c r="S76">
         <v>208.01025999999999</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>954.59214999999995</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1975.0182413793104</v>
       </c>
       <c r="AA76" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC76" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD76" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>229</v>
       </c>
@@ -13801,36 +14850,42 @@
         <v>199</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49.75</v>
       </c>
       <c r="P77">
         <v>43.054984500000003</v>
       </c>
       <c r="Q77" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>160.20715875000002</v>
       </c>
       <c r="R77" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>356.01590833333336</v>
       </c>
       <c r="S77">
         <v>319.86375000000004</v>
       </c>
       <c r="T77" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1513.8596000000002</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3364.1324444444449</v>
       </c>
       <c r="AA77" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD77" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>230</v>
       </c>
@@ -13871,7 +14926,7 @@
         <v>208</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
       <c r="O78" s="6"/>
@@ -13879,29 +14934,35 @@
         <v>23.8350285</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>51.285903000000005</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>109.89836357142859</v>
       </c>
       <c r="S78">
         <v>261.00105000000008</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>975.63688000000025</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2090.6504571428577</v>
       </c>
       <c r="AA78" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC78" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD78" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>231</v>
       </c>
@@ -13942,7 +15003,7 @@
         <v>168</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="O79" s="6"/>
@@ -13950,22 +15011,22 @@
         <v>19.716466499999999</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21.757284375000001</v>
       </c>
       <c r="R79" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>39.558698863636366</v>
       </c>
       <c r="S79">
         <v>358.24451999999997</v>
       </c>
       <c r="T79" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>852.88172499999985</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1550.6940454545452</v>
       </c>
       <c r="Y79" s="8">
@@ -13980,14 +15041,20 @@
       <c r="AB79" s="8">
         <v>3.2110389101491776</v>
       </c>
-      <c r="AC79" s="8">
+      <c r="AC79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE79" s="8">
         <v>-16.232705436684963</v>
       </c>
-      <c r="AD79" s="8">
+      <c r="AF79" s="8">
         <v>11.011816202365111</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>232</v>
       </c>
@@ -14028,7 +15095,7 @@
         <v>149</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>37.25</v>
       </c>
       <c r="O80" s="6"/>
@@ -14036,29 +15103,35 @@
         <v>21.873808499999999</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27.150639375000001</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>49.364798863636366</v>
       </c>
       <c r="S80">
         <v>174.62585000000001</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>393.83505000000002</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>716.06372727272731</v>
       </c>
       <c r="AA80" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD80" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>233</v>
       </c>
@@ -14099,7 +15172,7 @@
         <v>127</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>31.75</v>
       </c>
       <c r="O81" s="6"/>
@@ -14116,18 +15189,24 @@
         <v>205.88484000000003</v>
       </c>
       <c r="T81" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>471.98252500000012</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>858.15004545454565</v>
       </c>
       <c r="AA81" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD81" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>234</v>
       </c>
@@ -14168,7 +15247,7 @@
         <v>110</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27.5</v>
       </c>
       <c r="O82" s="6"/>
@@ -14176,29 +15255,35 @@
         <v>20.255801999999999</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" ref="Q82:Q94" si="20">(P82-AVERAGE($P$93,$P$94))*F82</f>
+        <f t="shared" ref="Q82:Q94" si="22">(P82-AVERAGE($P$93,$P$94))*F82</f>
         <v>23.105623125000001</v>
       </c>
       <c r="R82" s="6">
-        <f t="shared" ref="R82:R92" si="21">(Q82/J82*60)/G82</f>
+        <f t="shared" ref="R82:R92" si="23">(Q82/J82*60)/G82</f>
         <v>43.323043359374999</v>
       </c>
       <c r="S82">
         <v>305.19650000000001</v>
       </c>
       <c r="T82" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>720.26167499999997</v>
       </c>
       <c r="U82" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1350.490640625</v>
       </c>
       <c r="AA82" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD82" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>235</v>
       </c>
@@ -14239,7 +15324,7 @@
         <v>95</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23.75</v>
       </c>
       <c r="O83" s="6"/>
@@ -14247,29 +15332,35 @@
         <v>22.511204999999997</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28.744130624999997</v>
       </c>
       <c r="R83" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>53.89524492187499</v>
       </c>
       <c r="S83">
         <v>272.54574000000002</v>
       </c>
       <c r="T83" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>638.63477499999999</v>
       </c>
       <c r="U83" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1197.4402031249999</v>
       </c>
       <c r="AA83" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD83" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>236</v>
       </c>
@@ -14310,36 +15401,42 @@
         <v>89</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.25</v>
       </c>
       <c r="P84">
         <v>22.952479499999999</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>29.847316875000001</v>
       </c>
       <c r="R84" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>54.267848863636367</v>
       </c>
       <c r="S84">
         <v>175.35607999999999</v>
       </c>
       <c r="T84" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>395.66062499999998</v>
       </c>
       <c r="U84" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>719.38295454545448</v>
       </c>
       <c r="AA84" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC84" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD84" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>237</v>
       </c>
@@ -14380,36 +15477,42 @@
         <v>98</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24.5</v>
       </c>
       <c r="P85">
         <v>18.098459999999999</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>17.712268125000001</v>
       </c>
       <c r="R85" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>33.210502734375005</v>
       </c>
       <c r="S85">
         <v>236.60069999999999</v>
       </c>
       <c r="T85" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>548.77217500000006</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1028.9478281250001</v>
       </c>
       <c r="AA85" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD85" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>238</v>
       </c>
@@ -14450,36 +15553,42 @@
         <v>68</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="P86">
         <v>22.707327000000003</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23.387548500000008</v>
       </c>
       <c r="R86" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>41.272144411764714</v>
       </c>
       <c r="S86">
         <v>247.23587000000001</v>
       </c>
       <c r="T86" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>460.28808000000004</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>812.27308235294117</v>
       </c>
       <c r="AA86" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD86" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>239</v>
       </c>
@@ -14520,36 +15629,42 @@
         <v>24</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="P87">
         <v>23.491814999999999</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.9913049000000003</v>
       </c>
       <c r="R87" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.075099818181819</v>
       </c>
       <c r="S87">
         <v>189.65436</v>
       </c>
       <c r="T87" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>69.02501199999999</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>125.50002181818181</v>
       </c>
       <c r="AA87" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD87" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>240</v>
       </c>
@@ -14590,36 +15705,42 @@
         <v>24</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="P88">
         <v>19.128100499999999</v>
       </c>
       <c r="Q88" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.2458191000000003</v>
       </c>
       <c r="R88" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.9014892727272734</v>
       </c>
       <c r="S88">
         <v>294.79776000000004</v>
       </c>
       <c r="T88" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>111.08237200000002</v>
       </c>
       <c r="U88" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>201.96794909090912</v>
       </c>
       <c r="AA88" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC88" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD88" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>241</v>
       </c>
@@ -14660,36 +15781,42 @@
         <v>31</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.75</v>
       </c>
       <c r="P89">
         <v>33.297915000000003</v>
       </c>
       <c r="Q89" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.9137449000000029</v>
       </c>
       <c r="R89" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>16.206808909090913</v>
       </c>
       <c r="S89">
         <v>394.57410000000004</v>
       </c>
       <c r="T89" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>150.99290800000003</v>
       </c>
       <c r="U89" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>274.53256000000005</v>
       </c>
       <c r="AA89" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD89" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>242</v>
       </c>
@@ -14730,36 +15857,42 @@
         <v>40</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="P90">
         <v>18.392643000000003</v>
       </c>
       <c r="Q90" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>14.758180500000009</v>
       </c>
       <c r="R90" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>26.833055454545473</v>
       </c>
       <c r="S90">
         <v>148.11205999999999</v>
       </c>
       <c r="T90" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>262.04045999999994</v>
       </c>
       <c r="U90" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>476.4371999999999</v>
       </c>
       <c r="AA90" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC90" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD90" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>243</v>
       </c>
@@ -14800,36 +15933,42 @@
         <v>36</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="P91">
         <v>19.961618999999999</v>
       </c>
       <c r="Q91" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>17.8961325</v>
       </c>
       <c r="R91" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>34.637675806451618</v>
       </c>
       <c r="S91">
         <v>165.92114000000001</v>
       </c>
       <c r="T91" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>297.65862000000004</v>
       </c>
       <c r="U91" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>576.11345806451618</v>
       </c>
       <c r="AA91" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD91" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>244</v>
       </c>
@@ -14870,36 +16009,42 @@
         <v>45</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11.25</v>
       </c>
       <c r="P92">
         <v>19.863558000000001</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>22.125013125000006</v>
       </c>
       <c r="R92" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>44.250026250000012</v>
       </c>
       <c r="S92">
         <v>77.704999999999984</v>
       </c>
       <c r="T92" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>151.53292499999995</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>303.0658499999999</v>
       </c>
       <c r="AA92" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD92" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>245</v>
       </c>
@@ -14946,7 +16091,7 @@
         <v>9.1749089999999995</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-9.1932187499999962</v>
       </c>
       <c r="R93" s="6" t="s">
@@ -14956,7 +16101,7 @@
         <v>11.996390000000002</v>
       </c>
       <c r="T93" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-25.4772</v>
       </c>
       <c r="U93" s="6" t="s">
@@ -14965,8 +16110,14 @@
       <c r="AA93" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD93" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>246</v>
       </c>
@@ -15013,29 +16164,35 @@
         <v>12.8521965</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.73545750000000043</v>
       </c>
       <c r="R94" s="6">
-        <f t="shared" ref="R94:R125" si="22">(Q94/J94*60)/G94</f>
+        <f t="shared" ref="R94:R125" si="24">(Q94/J94*60)/G94</f>
         <v>1.1926337837837846</v>
       </c>
       <c r="S94">
         <v>22.187270000000005</v>
       </c>
       <c r="T94" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0381760000000013</v>
       </c>
       <c r="U94" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="U94:U125" si="25">(T94/J94*60)/G94</f>
         <v>3.3051502702702726</v>
       </c>
       <c r="AA94" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD94" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>247</v>
       </c>
@@ -15077,36 +16234,42 @@
         <v>238</v>
       </c>
       <c r="N95" s="6">
-        <f t="shared" ref="N95:N113" si="23">M95*0.25</f>
+        <f t="shared" ref="N95:N113" si="26">M95*0.25</f>
         <v>59.5</v>
       </c>
       <c r="P95">
         <v>40.946673000000004</v>
       </c>
       <c r="Q95" s="6">
-        <f t="shared" ref="Q95:Q115" si="24">(P95-AVERAGE($P$114,$P$115))*F95</f>
+        <f t="shared" ref="Q95:Q115" si="27">(P95-AVERAGE($P$114,$P$115))*F95</f>
         <v>135.07902750000002</v>
       </c>
       <c r="R95" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>207.81388846153851</v>
       </c>
       <c r="S95">
         <v>465.25965000000002</v>
       </c>
       <c r="T95" s="6">
-        <f>(S95-AVERAGE($S$114,$S$115))*F95</f>
+        <f t="shared" ref="T95:T115" si="28">(S95-AVERAGE($S$114,$S$115))*F95</f>
         <v>2226.1852000000003</v>
       </c>
       <c r="U95" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3424.9003076923082</v>
       </c>
       <c r="AA95" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD95" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>248</v>
       </c>
@@ -15147,36 +16310,42 @@
         <v>304</v>
       </c>
       <c r="N96" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
       <c r="P96">
         <v>52.468840499999999</v>
       </c>
       <c r="Q96" s="6">
+        <f t="shared" si="27"/>
+        <v>192.689865</v>
+      </c>
+      <c r="R96" s="6">
         <f t="shared" si="24"/>
-        <v>192.689865</v>
-      </c>
-      <c r="R96" s="6">
-        <f t="shared" si="22"/>
         <v>296.44594615384619</v>
       </c>
       <c r="S96">
         <v>456.55229899999995</v>
       </c>
       <c r="T96" s="6">
-        <f t="shared" ref="T96:T115" si="25">(S96-AVERAGE($S$114,$S$115))*F96</f>
+        <f t="shared" si="28"/>
         <v>2182.6484449999998</v>
       </c>
       <c r="U96" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3357.9206846153843</v>
       </c>
       <c r="AA96" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD96" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>249</v>
       </c>
@@ -15218,7 +16387,7 @@
         <v>15</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3.75</v>
       </c>
       <c r="O97" s="6"/>
@@ -15226,29 +16395,35 @@
         <v>22.4621745</v>
       </c>
       <c r="Q97" s="6">
+        <f t="shared" si="27"/>
+        <v>3.4125228000000001</v>
+      </c>
+      <c r="R97" s="6">
         <f t="shared" si="24"/>
-        <v>3.4125228000000001</v>
-      </c>
-      <c r="R97" s="6">
-        <f t="shared" si="22"/>
         <v>4.9939358048780491</v>
       </c>
       <c r="S97">
         <v>371.25923999999998</v>
       </c>
       <c r="T97" s="6">
+        <f t="shared" si="28"/>
+        <v>140.494652</v>
+      </c>
+      <c r="U97" s="6">
         <f t="shared" si="25"/>
-        <v>140.494652</v>
-      </c>
-      <c r="U97" s="6">
-        <f t="shared" si="19"/>
         <v>205.60192975609758</v>
       </c>
       <c r="AA97" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD97" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>250</v>
       </c>
@@ -15290,7 +16465,7 @@
         <v>10</v>
       </c>
       <c r="N98" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="O98" s="6" t="s">
@@ -15300,22 +16475,22 @@
         <v>24.570486000000002</v>
       </c>
       <c r="Q98" s="6">
+        <f t="shared" si="27"/>
+        <v>3.1918855500000007</v>
+      </c>
+      <c r="R98" s="6">
         <f t="shared" si="24"/>
-        <v>3.1918855500000007</v>
-      </c>
-      <c r="R98" s="6">
-        <f t="shared" si="22"/>
         <v>4.7878283250000013</v>
       </c>
       <c r="S98">
         <v>264.01965000000007</v>
       </c>
       <c r="T98" s="6">
+        <f t="shared" si="28"/>
+        <v>73.199112000000028</v>
+      </c>
+      <c r="U98" s="6">
         <f t="shared" si="25"/>
-        <v>73.199112000000028</v>
-      </c>
-      <c r="U98" s="6">
-        <f t="shared" si="19"/>
         <v>109.79866800000003</v>
       </c>
       <c r="Y98">
@@ -15330,14 +16505,20 @@
       <c r="AB98">
         <v>3.3927320951426836</v>
       </c>
-      <c r="AC98">
+      <c r="AC98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE98">
         <v>-18.502419033963751</v>
       </c>
-      <c r="AD98">
+      <c r="AF98">
         <v>8.3955777172979467</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>251</v>
       </c>
@@ -15378,7 +16559,7 @@
         <v>14</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3.5</v>
       </c>
       <c r="O99" s="6" t="s">
@@ -15388,22 +16569,22 @@
         <v>27.120072</v>
       </c>
       <c r="Q99" s="6">
+        <f t="shared" si="27"/>
+        <v>3.9567613499999998</v>
+      </c>
+      <c r="R99" s="6">
         <f t="shared" si="24"/>
-        <v>3.9567613499999998</v>
-      </c>
-      <c r="R99" s="6">
-        <f t="shared" si="22"/>
         <v>5.9351420249999993</v>
       </c>
       <c r="S99">
         <v>416.65924999999993</v>
       </c>
       <c r="T99" s="6">
+        <f t="shared" si="28"/>
+        <v>118.99099199999998</v>
+      </c>
+      <c r="U99" s="6">
         <f t="shared" si="25"/>
-        <v>118.99099199999998</v>
-      </c>
-      <c r="U99" s="6">
-        <f t="shared" si="19"/>
         <v>178.48648799999998</v>
       </c>
       <c r="Y99">
@@ -15418,14 +16599,20 @@
       <c r="AB99">
         <v>3.3051332548062646</v>
       </c>
-      <c r="AC99">
+      <c r="AC99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE99">
         <v>-18.245677663144804</v>
       </c>
-      <c r="AD99">
+      <c r="AF99">
         <v>8.1132993544354353</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>252</v>
       </c>
@@ -15466,7 +16653,7 @@
         <v>3</v>
       </c>
       <c r="N100" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="O100" s="6" t="s">
@@ -15476,22 +16663,22 @@
         <v>49.134766500000005</v>
       </c>
       <c r="Q100" s="6">
+        <f t="shared" si="27"/>
+        <v>10.561169700000002</v>
+      </c>
+      <c r="R100" s="6">
         <f t="shared" si="24"/>
-        <v>10.561169700000002</v>
-      </c>
-      <c r="R100" s="6">
-        <f t="shared" si="22"/>
         <v>15.841754550000003</v>
       </c>
       <c r="S100">
         <v>67.04016</v>
       </c>
       <c r="T100" s="6">
+        <f t="shared" si="28"/>
+        <v>14.105264999999999</v>
+      </c>
+      <c r="U100" s="6">
         <f t="shared" si="25"/>
-        <v>14.105264999999999</v>
-      </c>
-      <c r="U100" s="6">
-        <f t="shared" si="19"/>
         <v>21.157897500000001</v>
       </c>
       <c r="Y100">
@@ -15506,14 +16693,20 @@
       <c r="AB100">
         <v>3.6091769342682873</v>
       </c>
-      <c r="AC100">
+      <c r="AC100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE100">
         <v>-19.910001101994478</v>
       </c>
-      <c r="AD100">
+      <c r="AF100">
         <v>9.3532259146514782</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>253</v>
       </c>
@@ -15554,7 +16747,7 @@
         <v>3</v>
       </c>
       <c r="N101" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="O101" s="6" t="s">
@@ -15564,22 +16757,22 @@
         <v>48.007065000000004</v>
       </c>
       <c r="Q101" s="6">
+        <f t="shared" si="27"/>
+        <v>10.222859250000001</v>
+      </c>
+      <c r="R101" s="6">
         <f t="shared" si="24"/>
-        <v>10.222859250000001</v>
-      </c>
-      <c r="R101" s="6">
-        <f t="shared" si="22"/>
         <v>12.026893235294118</v>
       </c>
       <c r="S101">
         <v>70.806259999999995</v>
       </c>
       <c r="T101" s="6">
+        <f t="shared" si="28"/>
+        <v>15.235094999999998</v>
+      </c>
+      <c r="U101" s="6">
         <f t="shared" si="25"/>
-        <v>15.235094999999998</v>
-      </c>
-      <c r="U101" s="6">
-        <f t="shared" si="19"/>
         <v>17.923641176470586</v>
       </c>
       <c r="Y101">
@@ -15594,14 +16787,20 @@
       <c r="AB101">
         <v>3.6137193118569892</v>
       </c>
-      <c r="AC101">
+      <c r="AC101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE101">
         <v>-19.421493201875936</v>
       </c>
-      <c r="AD101">
+      <c r="AF101">
         <v>8.6385141480541829</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>254</v>
       </c>
@@ -15642,7 +16841,7 @@
         <v>6</v>
       </c>
       <c r="N102" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
       <c r="O102" s="6" t="s">
@@ -15652,22 +16851,22 @@
         <v>57.322859999999999</v>
       </c>
       <c r="Q102" s="6">
+        <f t="shared" si="27"/>
+        <v>13.01759775</v>
+      </c>
+      <c r="R102" s="6">
         <f t="shared" si="24"/>
-        <v>13.01759775</v>
-      </c>
-      <c r="R102" s="6">
-        <f t="shared" si="22"/>
         <v>15.020305096153844</v>
       </c>
       <c r="S102">
         <v>116.02829</v>
       </c>
       <c r="T102" s="6">
+        <f t="shared" si="28"/>
+        <v>28.801703999999997</v>
+      </c>
+      <c r="U102" s="6">
         <f t="shared" si="25"/>
-        <v>28.801703999999997</v>
-      </c>
-      <c r="U102" s="6">
-        <f t="shared" si="19"/>
         <v>33.232735384615381</v>
       </c>
       <c r="Y102">
@@ -15682,14 +16881,20 @@
       <c r="AB102">
         <v>3.3003223674663724</v>
       </c>
-      <c r="AC102">
+      <c r="AC102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE102">
         <v>-18.349573003865309</v>
       </c>
-      <c r="AD102">
+      <c r="AF102">
         <v>8.1024803231062119</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>255</v>
       </c>
@@ -15730,7 +16935,7 @@
         <v>3</v>
       </c>
       <c r="N103" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="O103" s="6" t="s">
@@ -15740,22 +16945,22 @@
         <v>34.964952000000004</v>
       </c>
       <c r="Q103" s="6">
+        <f t="shared" si="27"/>
+        <v>6.3102253500000014</v>
+      </c>
+      <c r="R103" s="6">
         <f t="shared" si="24"/>
-        <v>6.3102253500000014</v>
-      </c>
-      <c r="R103" s="6">
-        <f t="shared" si="22"/>
         <v>7.2810292500000013</v>
       </c>
       <c r="S103">
         <v>52.21455000000001</v>
       </c>
       <c r="T103" s="6">
+        <f t="shared" si="28"/>
+        <v>9.6575820000000032</v>
+      </c>
+      <c r="U103" s="6">
         <f t="shared" si="25"/>
-        <v>9.6575820000000032</v>
-      </c>
-      <c r="U103" s="6">
-        <f t="shared" si="19"/>
         <v>11.14336384615385</v>
       </c>
       <c r="Y103">
@@ -15770,14 +16975,20 @@
       <c r="AB103">
         <v>3.5562027513698564</v>
       </c>
-      <c r="AC103">
+      <c r="AC103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE103">
         <v>-17.932992647322507</v>
       </c>
-      <c r="AD103">
+      <c r="AF103">
         <v>7.988388719998019</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>256</v>
       </c>
@@ -15819,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="N104" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="O104" s="6" t="s">
@@ -15829,22 +17040,22 @@
         <v>33.395976000000005</v>
       </c>
       <c r="Q104" s="6">
+        <f t="shared" si="27"/>
+        <v>5.8395325500000022</v>
+      </c>
+      <c r="R104" s="6">
         <f t="shared" si="24"/>
-        <v>5.8395325500000022</v>
-      </c>
-      <c r="R104" s="6">
-        <f t="shared" si="22"/>
         <v>6.6107915660377383</v>
       </c>
       <c r="S104">
         <v>111.99440000000001</v>
       </c>
       <c r="T104" s="6">
+        <f t="shared" si="28"/>
+        <v>27.591537000000002</v>
+      </c>
+      <c r="U104" s="6">
         <f t="shared" si="25"/>
-        <v>27.591537000000002</v>
-      </c>
-      <c r="U104" s="6">
-        <f t="shared" si="19"/>
         <v>31.235702264150948</v>
       </c>
       <c r="Y104">
@@ -15859,14 +17070,20 @@
       <c r="AB104">
         <v>3.4028554943394802</v>
       </c>
-      <c r="AC104">
+      <c r="AC104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE104">
         <v>-19.588325143225212</v>
       </c>
-      <c r="AD104">
+      <c r="AF104">
         <v>7.9028200176668761</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>257</v>
       </c>
@@ -15907,7 +17124,7 @@
         <v>3</v>
       </c>
       <c r="N105" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="O105" s="6" t="s">
@@ -15917,22 +17134,22 @@
         <v>29.326444500000001</v>
       </c>
       <c r="Q105" s="6">
+        <f t="shared" si="27"/>
+        <v>4.6186731000000005</v>
+      </c>
+      <c r="R105" s="6">
         <f t="shared" si="24"/>
-        <v>4.6186731000000005</v>
-      </c>
-      <c r="R105" s="6">
-        <f t="shared" si="22"/>
         <v>5.2286865283018873</v>
       </c>
       <c r="S105">
         <v>102.65276000000001</v>
       </c>
       <c r="T105" s="6">
+        <f t="shared" si="28"/>
+        <v>24.789045000000005</v>
+      </c>
+      <c r="U105" s="6">
         <f t="shared" si="25"/>
-        <v>24.789045000000005</v>
-      </c>
-      <c r="U105" s="6">
-        <f t="shared" si="19"/>
         <v>28.063069811320762</v>
       </c>
       <c r="Y105">
@@ -15947,14 +17164,20 @@
       <c r="AB105">
         <v>3.2892172844031906</v>
       </c>
-      <c r="AC105">
+      <c r="AC105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE105">
         <v>-18.718201664690959</v>
       </c>
-      <c r="AD105">
+      <c r="AF105">
         <v>8.7122802707534444</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>258</v>
       </c>
@@ -15995,7 +17218,7 @@
         <v>3</v>
       </c>
       <c r="N106" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="O106" s="6" t="s">
@@ -16005,22 +17228,22 @@
         <v>30.454146000000001</v>
       </c>
       <c r="Q106" s="6">
+        <f t="shared" si="27"/>
+        <v>4.9569835500000012</v>
+      </c>
+      <c r="R106" s="6">
         <f t="shared" si="24"/>
-        <v>4.9569835500000012</v>
-      </c>
-      <c r="R106" s="6">
-        <f t="shared" si="22"/>
         <v>5.611679490566039</v>
       </c>
       <c r="S106">
         <v>152.33330000000001</v>
       </c>
       <c r="T106" s="6">
+        <f t="shared" si="28"/>
+        <v>39.693207000000008</v>
+      </c>
+      <c r="U106" s="6">
         <f t="shared" si="25"/>
-        <v>39.693207000000008</v>
-      </c>
-      <c r="U106" s="6">
-        <f t="shared" si="19"/>
         <v>44.935706037735855</v>
       </c>
       <c r="Y106">
@@ -16035,14 +17258,20 @@
       <c r="AB106">
         <v>3.8359841606424068</v>
       </c>
-      <c r="AC106">
+      <c r="AC106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE106">
         <v>-18.828090967376113</v>
       </c>
-      <c r="AD106">
+      <c r="AF106">
         <v>8.1349374170938873</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>259</v>
       </c>
@@ -16083,7 +17312,7 @@
         <v>3</v>
       </c>
       <c r="N107" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="O107" s="6" t="s">
@@ -16093,29 +17322,35 @@
         <v>11.626434</v>
       </c>
       <c r="Q107" s="6">
+        <f t="shared" si="27"/>
+        <v>-0.69133005000000003</v>
+      </c>
+      <c r="R107" s="6">
         <f t="shared" si="24"/>
-        <v>-0.69133005000000003</v>
-      </c>
-      <c r="R107" s="6">
-        <f t="shared" si="22"/>
         <v>-0.76814450000000001</v>
       </c>
       <c r="S107">
         <v>56.156869999999998</v>
       </c>
       <c r="T107" s="6">
+        <f t="shared" si="28"/>
+        <v>10.840278</v>
+      </c>
+      <c r="U107" s="6">
         <f t="shared" si="25"/>
-        <v>10.840278</v>
-      </c>
-      <c r="U107" s="6">
-        <f t="shared" si="19"/>
         <v>12.044753333333333</v>
       </c>
       <c r="AA107" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD107" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>260</v>
       </c>
@@ -16156,7 +17391,7 @@
         <v>5</v>
       </c>
       <c r="N108" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.25</v>
       </c>
       <c r="O108" s="6" t="s">
@@ -16166,22 +17401,22 @@
         <v>45.310387500000004</v>
       </c>
       <c r="Q108" s="6">
+        <f t="shared" si="27"/>
+        <v>9.4138560000000009</v>
+      </c>
+      <c r="R108" s="6">
         <f t="shared" si="24"/>
-        <v>9.4138560000000009</v>
-      </c>
-      <c r="R108" s="6">
-        <f t="shared" si="22"/>
         <v>10.269661090909091</v>
       </c>
       <c r="S108">
         <v>202.86308000000002</v>
       </c>
       <c r="T108" s="6">
+        <f t="shared" si="28"/>
+        <v>54.85214100000001</v>
+      </c>
+      <c r="U108" s="6">
         <f t="shared" si="25"/>
-        <v>54.85214100000001</v>
-      </c>
-      <c r="U108" s="6">
-        <f t="shared" si="19"/>
         <v>59.83869927272729</v>
       </c>
       <c r="Y108">
@@ -16196,14 +17431,20 @@
       <c r="AB108">
         <v>3.3693755490372062</v>
       </c>
-      <c r="AC108" s="8">
+      <c r="AC108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE108" s="8">
         <v>-19.185730697933245</v>
       </c>
-      <c r="AD108">
+      <c r="AF108">
         <v>8.1447729001204543</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>261</v>
       </c>
@@ -16244,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="N109" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="O109" s="6" t="s">
@@ -16254,22 +17495,22 @@
         <v>37.465507500000001</v>
       </c>
       <c r="Q109" s="6">
+        <f t="shared" si="27"/>
+        <v>7.0603920000000011</v>
+      </c>
+      <c r="R109" s="6">
         <f t="shared" si="24"/>
-        <v>7.0603920000000011</v>
-      </c>
-      <c r="R109" s="6">
-        <f t="shared" si="22"/>
         <v>7.8448800000000016</v>
       </c>
       <c r="S109">
         <v>97.981940000000009</v>
       </c>
       <c r="T109" s="6">
+        <f t="shared" si="28"/>
+        <v>23.387799000000001</v>
+      </c>
+      <c r="U109" s="6">
         <f t="shared" si="25"/>
-        <v>23.387799000000001</v>
-      </c>
-      <c r="U109" s="6">
-        <f t="shared" si="19"/>
         <v>25.986443333333334</v>
       </c>
       <c r="Y109">
@@ -16284,14 +17525,20 @@
       <c r="AB109">
         <v>3.8399408424783181</v>
       </c>
-      <c r="AC109" s="8">
+      <c r="AC109" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD109" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE109" s="8">
         <v>-18.767152354068891</v>
       </c>
-      <c r="AD109">
+      <c r="AF109">
         <v>8.5726164117761758</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>262</v>
       </c>
@@ -16332,7 +17579,7 @@
         <v>2</v>
       </c>
       <c r="N110" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
       <c r="O110" s="6" t="s">
@@ -16342,22 +17589,22 @@
         <v>25.894309499999999</v>
       </c>
       <c r="Q110" s="6">
+        <f t="shared" si="27"/>
+        <v>3.5890325999999995</v>
+      </c>
+      <c r="R110" s="6">
         <f t="shared" si="24"/>
-        <v>3.5890325999999995</v>
-      </c>
-      <c r="R110" s="6">
-        <f t="shared" si="22"/>
         <v>3.845392071428571</v>
       </c>
       <c r="S110">
         <v>210.02131999999997</v>
       </c>
       <c r="T110" s="6">
+        <f t="shared" si="28"/>
+        <v>56.999612999999989</v>
+      </c>
+      <c r="U110" s="6">
         <f t="shared" si="25"/>
-        <v>56.999612999999989</v>
-      </c>
-      <c r="U110" s="6">
-        <f t="shared" si="19"/>
         <v>61.071013928571411</v>
       </c>
       <c r="Y110">
@@ -16372,14 +17619,20 @@
       <c r="AB110">
         <v>3.7094336532899961</v>
       </c>
-      <c r="AC110" s="8">
+      <c r="AC110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE110" s="8">
         <v>-17.944980571251797</v>
       </c>
-      <c r="AD110">
+      <c r="AF110">
         <v>9.6348485786455509</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>263</v>
       </c>
@@ -16420,7 +17673,7 @@
         <v>3</v>
       </c>
       <c r="N111" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="O111" s="6" t="s">
@@ -16430,22 +17683,22 @@
         <v>18.147490500000004</v>
       </c>
       <c r="Q111" s="6">
+        <f t="shared" si="27"/>
+        <v>1.2649869000000011</v>
+      </c>
+      <c r="R111" s="6">
         <f t="shared" si="24"/>
-        <v>1.2649869000000011</v>
-      </c>
-      <c r="R111" s="6">
-        <f t="shared" si="22"/>
         <v>1.3315651578947381</v>
       </c>
       <c r="S111">
         <v>69.95702</v>
       </c>
       <c r="T111" s="6">
+        <f t="shared" si="28"/>
+        <v>14.980322999999999</v>
+      </c>
+      <c r="U111" s="6">
         <f t="shared" si="25"/>
-        <v>14.980322999999999</v>
-      </c>
-      <c r="U111" s="6">
-        <f t="shared" si="19"/>
         <v>15.768761052631577</v>
       </c>
       <c r="Y111">
@@ -16460,14 +17713,20 @@
       <c r="AB111">
         <v>3.4083787085774051</v>
       </c>
-      <c r="AC111" s="8">
+      <c r="AC111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE111" s="8">
         <v>-18.197725967427644</v>
       </c>
-      <c r="AD111">
+      <c r="AF111">
         <v>8.1634603178709337</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>264</v>
       </c>
@@ -16508,7 +17767,7 @@
         <v>3</v>
       </c>
       <c r="N112" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="O112" s="6" t="s">
@@ -16518,22 +17777,22 @@
         <v>22.020899999999997</v>
       </c>
       <c r="Q112" s="6">
+        <f t="shared" si="27"/>
+        <v>2.4270097499999994</v>
+      </c>
+      <c r="R112" s="6">
         <f t="shared" si="24"/>
-        <v>2.4270097499999994</v>
-      </c>
-      <c r="R112" s="6">
-        <f t="shared" si="22"/>
         <v>2.6003675892857139</v>
       </c>
       <c r="S112">
         <v>56.793800000000005</v>
       </c>
       <c r="T112" s="6">
+        <f t="shared" si="28"/>
+        <v>11.031357000000002</v>
+      </c>
+      <c r="U112" s="6">
         <f t="shared" si="25"/>
-        <v>11.031357000000002</v>
-      </c>
-      <c r="U112" s="6">
-        <f t="shared" si="19"/>
         <v>11.819311071428572</v>
       </c>
       <c r="Y112">
@@ -16548,14 +17807,20 @@
       <c r="AB112">
         <v>3.3244288077586694</v>
       </c>
-      <c r="AC112" s="8">
+      <c r="AC112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE112" s="8">
         <v>-17.961963463484956</v>
       </c>
-      <c r="AD112">
+      <c r="AF112">
         <v>8.3945941689952903</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>265</v>
       </c>
@@ -16596,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="N113" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="O113" s="6" t="s">
@@ -16606,22 +17871,22 @@
         <v>33.395976000000005</v>
       </c>
       <c r="Q113" s="6">
+        <f t="shared" si="27"/>
+        <v>5.8395325500000022</v>
+      </c>
+      <c r="R113" s="6">
         <f t="shared" si="24"/>
-        <v>5.8395325500000022</v>
-      </c>
-      <c r="R113" s="6">
-        <f t="shared" si="22"/>
         <v>6.1468763684210543</v>
       </c>
       <c r="S113">
         <v>94.334919999999997</v>
       </c>
       <c r="T113" s="6">
+        <f t="shared" si="28"/>
+        <v>22.293692999999998</v>
+      </c>
+      <c r="U113" s="6">
         <f t="shared" si="25"/>
-        <v>22.293692999999998</v>
-      </c>
-      <c r="U113" s="6">
-        <f t="shared" si="19"/>
         <v>23.467045263157893</v>
       </c>
       <c r="Y113">
@@ -16636,14 +17901,20 @@
       <c r="AB113">
         <v>3.6910111798970626</v>
       </c>
-      <c r="AC113" s="8">
+      <c r="AC113" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD113" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE113" s="8">
         <v>-19.270645159099047</v>
       </c>
-      <c r="AD113">
+      <c r="AF113">
         <v>9.8177885629397217</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>266</v>
       </c>
@@ -16690,29 +17961,35 @@
         <v>15.5979045</v>
       </c>
       <c r="Q114" s="6">
+        <f t="shared" si="27"/>
+        <v>0.50011110000000014</v>
+      </c>
+      <c r="R114" s="6">
         <f t="shared" si="24"/>
-        <v>0.50011110000000014</v>
-      </c>
-      <c r="R114" s="6">
-        <f t="shared" si="22"/>
         <v>0.54557574545454568</v>
       </c>
       <c r="S114">
         <v>21.777000000000001</v>
       </c>
       <c r="T114" s="6">
+        <f t="shared" si="28"/>
+        <v>0.52631700000000026</v>
+      </c>
+      <c r="U114" s="6">
         <f t="shared" si="25"/>
-        <v>0.52631700000000026</v>
-      </c>
-      <c r="U114" s="6">
-        <f t="shared" si="19"/>
         <v>0.57416400000000023</v>
       </c>
       <c r="AA114" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC114" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD114" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>267</v>
       </c>
@@ -16759,29 +18036,35 @@
         <v>12.263830499999999</v>
       </c>
       <c r="Q115" s="6">
+        <f t="shared" si="27"/>
+        <v>-8.3351850000000027</v>
+      </c>
+      <c r="R115" s="6">
         <f t="shared" si="24"/>
-        <v>-8.3351850000000027</v>
-      </c>
-      <c r="R115" s="6">
-        <f t="shared" si="22"/>
         <v>-10.640661702127664</v>
       </c>
       <c r="S115">
         <v>18.268219999999999</v>
       </c>
       <c r="T115" s="6">
+        <f t="shared" si="28"/>
+        <v>-8.7719500000000039</v>
+      </c>
+      <c r="U115" s="6">
         <f t="shared" si="25"/>
-        <v>-8.7719500000000039</v>
-      </c>
-      <c r="U115" s="6">
-        <f t="shared" si="19"/>
         <v>-11.198234042553196</v>
       </c>
       <c r="AA115" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC115" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD115" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>268</v>
       </c>
@@ -16823,36 +18106,42 @@
         <v>390</v>
       </c>
       <c r="N116" s="6">
-        <f t="shared" ref="N116:N158" si="26">M116*0.25</f>
+        <f t="shared" ref="N116:N158" si="29">M116*0.25</f>
         <v>97.5</v>
       </c>
       <c r="P116">
         <v>55.018426500000004</v>
       </c>
       <c r="Q116" s="6">
-        <f t="shared" ref="Q116:Q160" si="27">(P116-AVERAGE($P$159,$P$160))*F116</f>
+        <f t="shared" ref="Q116:Q160" si="30">(P116-AVERAGE($P$159,$P$160))*F116</f>
         <v>213.89555625</v>
       </c>
       <c r="R116" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>388.90101136363637</v>
       </c>
       <c r="S116">
         <v>198.40457000000004</v>
       </c>
       <c r="T116" s="6">
-        <f>(S116-AVERAGE($S$160,$S$159))*F116</f>
+        <f t="shared" ref="T116:T160" si="31">(S116-AVERAGE($S$160,$S$159))*F116</f>
         <v>942.57667500000014</v>
       </c>
       <c r="U116" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1713.7757727272731</v>
       </c>
       <c r="AA116" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC116" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD116" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>269</v>
       </c>
@@ -16893,36 +18182,42 @@
         <v>450</v>
       </c>
       <c r="N117" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>112.5</v>
       </c>
       <c r="P117">
         <v>46.977424500000005</v>
       </c>
       <c r="Q117" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>173.69054625000004</v>
       </c>
       <c r="R117" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>315.80099318181823</v>
       </c>
       <c r="S117">
         <v>431.73326000000009</v>
       </c>
       <c r="T117" s="6">
-        <f t="shared" ref="T117:T160" si="28">(S117-AVERAGE($S$160,$S$159))*F117</f>
+        <f t="shared" si="31"/>
         <v>2109.2201250000007</v>
       </c>
       <c r="U117" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3834.9456818181829</v>
       </c>
       <c r="AA117" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC117" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD117" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>270</v>
       </c>
@@ -16963,29 +18258,29 @@
         <v>7</v>
       </c>
       <c r="N118" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.75</v>
       </c>
       <c r="P118">
         <v>19.5203445</v>
       </c>
       <c r="Q118" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.1843087749999999</v>
       </c>
       <c r="R118" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.9714704999999997</v>
       </c>
       <c r="S118">
         <v>99.892729999999986</v>
       </c>
       <c r="T118" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>27.001048499999996</v>
       </c>
       <c r="U118" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>49.092815454545445</v>
       </c>
       <c r="Y118">
@@ -17000,14 +18295,20 @@
       <c r="AB118">
         <v>3.2974608621073767</v>
       </c>
-      <c r="AC118">
+      <c r="AC118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE118">
         <v>-19.374540499819553</v>
       </c>
-      <c r="AD118">
+      <c r="AF118">
         <v>9.4627276256806052</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>271</v>
       </c>
@@ -17048,29 +18349,29 @@
         <v>8</v>
       </c>
       <c r="N119" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="P119">
         <v>434.46546599999999</v>
       </c>
       <c r="Q119" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>126.66784522499999</v>
       </c>
       <c r="R119" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>149.02099438235294</v>
       </c>
       <c r="S119">
         <v>419.20697000000007</v>
       </c>
       <c r="T119" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>122.79532050000002</v>
       </c>
       <c r="U119" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>144.46508294117649</v>
       </c>
       <c r="Y119">
@@ -17085,14 +18386,20 @@
       <c r="AB119">
         <v>3.7666667994763681</v>
       </c>
-      <c r="AC119">
+      <c r="AC119" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD119" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE119">
         <v>-22.103791181054437</v>
       </c>
-      <c r="AD119">
+      <c r="AF119">
         <v>11.333436497333894</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>272</v>
       </c>
@@ -17134,29 +18441,29 @@
         <v>9</v>
       </c>
       <c r="N120" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.25</v>
       </c>
       <c r="P120">
         <v>196.37335800000002</v>
       </c>
       <c r="Q120" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>55.240212825000008</v>
       </c>
       <c r="R120" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>64.988485676470603</v>
       </c>
       <c r="S120">
         <v>310.92886999999996</v>
       </c>
       <c r="T120" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>90.31189049999999</v>
       </c>
       <c r="U120" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>106.24928294117646</v>
       </c>
       <c r="Y120">
@@ -17171,14 +18478,20 @@
       <c r="AB120">
         <v>4.5222116732659163</v>
       </c>
-      <c r="AC120">
+      <c r="AC120" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD120" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE120">
         <v>-18.245677663144804</v>
       </c>
-      <c r="AD120">
+      <c r="AF120">
         <v>10.690195907396328</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>273</v>
       </c>
@@ -17220,7 +18533,7 @@
         <v>9</v>
       </c>
       <c r="N121" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.25</v>
       </c>
       <c r="O121" s="6"/>
@@ -17228,22 +18541,22 @@
         <v>281.34321449999999</v>
       </c>
       <c r="Q121" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>80.731169774999998</v>
       </c>
       <c r="R121" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>94.977846794117639</v>
       </c>
       <c r="S121">
         <v>532.13563999999997</v>
       </c>
       <c r="T121" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>156.67392149999998</v>
       </c>
       <c r="U121" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>184.32226058823528</v>
       </c>
       <c r="Y121">
@@ -17258,14 +18571,20 @@
       <c r="AB121">
         <v>3.6606505735550718</v>
       </c>
-      <c r="AC121">
+      <c r="AC121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE121">
         <v>-22.266627147760616</v>
       </c>
-      <c r="AD121">
+      <c r="AF121">
         <v>11.608830022077806</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>274</v>
       </c>
@@ -17307,7 +18626,7 @@
         <v>6</v>
       </c>
       <c r="N122" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.5</v>
       </c>
       <c r="O122" s="6"/>
@@ -17315,22 +18634,22 @@
         <v>216.475863</v>
       </c>
       <c r="Q122" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>61.270964324999994</v>
       </c>
       <c r="R122" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>72.083487441176473</v>
       </c>
       <c r="S122">
         <v>249.57128000000003</v>
       </c>
       <c r="T122" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>71.904613499999996</v>
       </c>
       <c r="U122" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>84.593662941176461</v>
       </c>
       <c r="Y122">
@@ -17345,14 +18664,20 @@
       <c r="AB122">
         <v>3.4984368729244628</v>
       </c>
-      <c r="AC122">
+      <c r="AC122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE122">
         <v>-19.478435840540062</v>
       </c>
-      <c r="AD122">
+      <c r="AF122">
         <v>11.457363583468654</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>275</v>
       </c>
@@ -17394,29 +18719,29 @@
         <v>12</v>
       </c>
       <c r="N123" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="P123">
         <v>91.350026999999997</v>
       </c>
       <c r="Q123" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>23.733213524999996</v>
       </c>
       <c r="R123" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>27.921427676470582</v>
       </c>
       <c r="S123">
         <v>421.149</v>
       </c>
       <c r="T123" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>123.37792949999999</v>
       </c>
       <c r="U123" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>145.15050529411764</v>
       </c>
       <c r="Y123">
@@ -17431,14 +18756,20 @@
       <c r="AB123">
         <v>3.5917025921258663</v>
       </c>
-      <c r="AC123">
+      <c r="AC123" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD123" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE123">
         <v>-15.226718820285427</v>
       </c>
-      <c r="AD123">
+      <c r="AF123">
         <v>9.2148734534110854</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>276</v>
       </c>
@@ -17480,7 +18811,7 @@
         <v>10</v>
       </c>
       <c r="N124" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="O124" s="6"/>
@@ -17488,22 +18819,22 @@
         <v>267.61467449999998</v>
       </c>
       <c r="Q124" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>76.612607774999987</v>
       </c>
       <c r="R124" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>90.132479735294098</v>
       </c>
       <c r="S124">
         <v>551.26379000000009</v>
       </c>
       <c r="T124" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>162.41236650000002</v>
       </c>
       <c r="U124" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>191.07337235294119</v>
       </c>
       <c r="Y124">
@@ -17518,14 +18849,20 @@
       <c r="AB124">
         <v>3.8329412856588845</v>
       </c>
-      <c r="AC124">
+      <c r="AC124" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD124" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE124">
         <v>-26.521341148997575</v>
       </c>
-      <c r="AD124">
+      <c r="AF124">
         <v>13.488390828455005</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>277</v>
       </c>
@@ -17567,7 +18904,7 @@
         <v>6</v>
       </c>
       <c r="N125" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.5</v>
       </c>
       <c r="O125" s="6"/>
@@ -17575,22 +18912,22 @@
         <v>294.09114449999998</v>
       </c>
       <c r="Q125" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>84.555548774999991</v>
       </c>
       <c r="R125" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>99.477116205882339</v>
       </c>
       <c r="S125">
         <v>330.88600999999994</v>
       </c>
       <c r="T125" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>96.299032499999981</v>
       </c>
       <c r="U125" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>113.29297941176468</v>
       </c>
       <c r="Y125">
@@ -17605,14 +18942,20 @@
       <c r="AB125">
         <v>3.6712999145581082</v>
       </c>
-      <c r="AC125">
+      <c r="AC125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE125">
         <v>-20.866038035355309</v>
       </c>
-      <c r="AD125">
+      <c r="AF125">
         <v>11.191805541751311</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>278</v>
       </c>
@@ -17653,7 +18996,7 @@
         <v>9</v>
       </c>
       <c r="N126" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.25</v>
       </c>
       <c r="O126" s="6"/>
@@ -17661,22 +19004,22 @@
         <v>408.62639250000001</v>
       </c>
       <c r="Q126" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>118.916123175</v>
       </c>
       <c r="R126" s="6">
-        <f t="shared" ref="R126:R157" si="29">(Q126/J126*60)/G126</f>
+        <f t="shared" ref="R126:R157" si="32">(Q126/J126*60)/G126</f>
         <v>139.90132138235293</v>
       </c>
       <c r="S126">
         <v>557.57850000000008</v>
       </c>
       <c r="T126" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>164.30677950000003</v>
       </c>
       <c r="U126" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="U126:U157" si="33">(T126/J126*60)/G126</f>
         <v>193.30209352941179</v>
       </c>
       <c r="Y126">
@@ -17691,14 +19034,20 @@
       <c r="AB126">
         <v>3.7796357249997117</v>
       </c>
-      <c r="AC126">
+      <c r="AC126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE126">
         <v>-21.956939112920644</v>
       </c>
-      <c r="AD126">
+      <c r="AF126">
         <v>7.493663923761634</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>279</v>
       </c>
@@ -17739,7 +19088,7 @@
         <v>14</v>
       </c>
       <c r="N127" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.5</v>
       </c>
       <c r="O127" s="6"/>
@@ -17747,22 +19096,22 @@
         <v>239.47116750000004</v>
       </c>
       <c r="Q127" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>68.169555675000012</v>
       </c>
       <c r="R127" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>78.657179625000012</v>
       </c>
       <c r="S127">
         <v>422.74770000000001</v>
       </c>
       <c r="T127" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>123.8575395</v>
       </c>
       <c r="U127" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>142.91254557692309</v>
       </c>
       <c r="Y127">
@@ -17777,14 +19126,20 @@
       <c r="AB127">
         <v>4.6851086641971387</v>
       </c>
-      <c r="AC127">
+      <c r="AC127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE127">
         <v>-26.197667202906761</v>
       </c>
-      <c r="AD127">
+      <c r="AF127">
         <v>5.0072538146451713</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>280</v>
       </c>
@@ -17825,7 +19180,7 @@
         <v>7</v>
       </c>
       <c r="N128" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.75</v>
       </c>
       <c r="O128" s="6"/>
@@ -17833,22 +19188,22 @@
         <v>186.9104715</v>
       </c>
       <c r="Q128" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>52.401346874999994</v>
       </c>
       <c r="R128" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>60.463092548076915</v>
       </c>
       <c r="S128">
         <v>309.04710000000006</v>
       </c>
       <c r="T128" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>89.747359500000016</v>
       </c>
       <c r="U128" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>103.55464557692309</v>
       </c>
       <c r="Y128">
@@ -17863,14 +19218,20 @@
       <c r="AB128">
         <v>3.5844142028009731</v>
       </c>
-      <c r="AC128">
+      <c r="AC128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE128">
         <v>-23.498386331495098</v>
       </c>
-      <c r="AD128">
+      <c r="AF128">
         <v>12.001265794837881</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>281</v>
       </c>
@@ -17911,7 +19272,7 @@
         <v>5</v>
       </c>
       <c r="N129" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.25</v>
       </c>
       <c r="O129" s="6"/>
@@ -17919,22 +19280,22 @@
         <v>170.68137600000003</v>
       </c>
       <c r="Q129" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>47.532618225000007</v>
       </c>
       <c r="R129" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>55.92072732352942</v>
       </c>
       <c r="S129">
         <v>246.41115000000005</v>
       </c>
       <c r="T129" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>70.956574500000002</v>
       </c>
       <c r="U129" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>83.478322941176486</v>
       </c>
       <c r="Y129">
@@ -17949,14 +19310,20 @@
       <c r="AB129">
         <v>3.3229490958348031</v>
       </c>
-      <c r="AC129">
+      <c r="AC129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE129">
         <v>-21.178723051177606</v>
       </c>
-      <c r="AD129">
+      <c r="AF129">
         <v>12.223547711238323</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>282</v>
       </c>
@@ -17998,7 +19365,7 @@
         <v>10</v>
       </c>
       <c r="N130" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="O130" s="6"/>
@@ -18006,29 +19373,35 @@
         <v>222.16340099999999</v>
       </c>
       <c r="Q130" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>62.977225724999997</v>
       </c>
       <c r="R130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>74.090853794117635</v>
       </c>
       <c r="S130">
         <v>348.54045000000002</v>
       </c>
       <c r="T130" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>101.5953645</v>
       </c>
       <c r="U130" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>119.52395823529412</v>
       </c>
       <c r="AA130" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD130" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>283</v>
       </c>
@@ -18070,7 +19443,7 @@
         <v>8</v>
       </c>
       <c r="N131" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="O131" s="6"/>
@@ -18078,22 +19451,22 @@
         <v>266.83018650000002</v>
       </c>
       <c r="Q131" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>76.377261375000003</v>
       </c>
       <c r="R131" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>91.65271365000001</v>
       </c>
       <c r="S131">
         <v>355.08075000000002</v>
       </c>
       <c r="T131" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>103.55745450000001</v>
       </c>
       <c r="U131" s="6">
-        <f t="shared" ref="U131:U160" si="30">(T131/J131*60)/G131</f>
+        <f t="shared" si="33"/>
         <v>124.26894540000001</v>
       </c>
       <c r="Y131">
@@ -18108,14 +19481,20 @@
       <c r="AB131">
         <v>3.572392975387757</v>
       </c>
-      <c r="AC131" s="8">
+      <c r="AC131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE131" s="8">
         <v>-24.232646672164076</v>
       </c>
-      <c r="AD131" s="8">
+      <c r="AF131" s="8">
         <v>9.7312363123059207</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>284</v>
       </c>
@@ -18157,7 +19536,7 @@
         <v>11</v>
       </c>
       <c r="N132" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.75</v>
       </c>
       <c r="O132" s="6"/>
@@ -18165,29 +19544,35 @@
         <v>260.30913000000004</v>
       </c>
       <c r="Q132" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>74.420944425000002</v>
       </c>
       <c r="R132" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>87.554052264705888</v>
       </c>
       <c r="S132">
         <v>347.53425000000004</v>
       </c>
       <c r="T132" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>101.29350450000001</v>
       </c>
       <c r="U132" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>119.16882882352942</v>
       </c>
       <c r="AA132" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC132" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD132" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>285</v>
       </c>
@@ -18229,7 +19614,7 @@
         <v>13</v>
       </c>
       <c r="N133" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.25</v>
       </c>
       <c r="O133" s="6"/>
@@ -18237,29 +19622,35 @@
         <v>270.26232150000004</v>
       </c>
       <c r="Q133" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>77.406901875000003</v>
       </c>
       <c r="R133" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>91.066943382352946</v>
       </c>
       <c r="S133">
         <v>586.25520000000006</v>
       </c>
       <c r="T133" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>172.90978950000002</v>
       </c>
       <c r="U133" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>203.42328176470591</v>
       </c>
       <c r="AA133" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD133" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>286</v>
       </c>
@@ -18301,7 +19692,7 @@
         <v>9</v>
       </c>
       <c r="N134" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.25</v>
       </c>
       <c r="O134" s="6"/>
@@ -18309,22 +19700,22 @@
         <v>280.11745200000001</v>
       </c>
       <c r="Q134" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>80.363441025</v>
       </c>
       <c r="R134" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>94.545224735294113</v>
       </c>
       <c r="S134">
         <v>305.52540000000005</v>
       </c>
       <c r="T134" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>88.690849500000013</v>
       </c>
       <c r="U134" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>104.34217588235296</v>
       </c>
       <c r="Y134">
@@ -18339,14 +19730,20 @@
       <c r="AB134">
         <v>3.7441704471700907</v>
       </c>
-      <c r="AC134" s="8">
+      <c r="AC134" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD134" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE134" s="8">
         <v>-22.144749921146175</v>
       </c>
-      <c r="AD134" s="8">
+      <c r="AF134" s="8">
         <v>11.57047163827419</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>287</v>
       </c>
@@ -18388,7 +19785,7 @@
         <v>7</v>
       </c>
       <c r="N135" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.75</v>
       </c>
       <c r="O135" s="6"/>
@@ -18396,22 +19793,22 @@
         <v>303.99530550000003</v>
       </c>
       <c r="Q135" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>87.526797075000005</v>
       </c>
       <c r="R135" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>116.7023961</v>
       </c>
       <c r="S135">
         <v>345.77340000000004</v>
       </c>
       <c r="T135" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>100.76524950000001</v>
       </c>
       <c r="U135" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>134.353666</v>
       </c>
       <c r="Y135">
@@ -18426,14 +19823,20 @@
       <c r="AB135">
         <v>3.5617553741241572</v>
       </c>
-      <c r="AC135" s="8">
+      <c r="AC135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE135" s="8">
         <v>-19.296618994279171</v>
       </c>
-      <c r="AD135" s="8">
+      <c r="AF135" s="8">
         <v>10.257434654227325</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>288</v>
       </c>
@@ -18475,7 +19878,7 @@
         <v>4</v>
       </c>
       <c r="N136" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O136" s="6"/>
@@ -18483,22 +19886,22 @@
         <v>164.99383800000001</v>
       </c>
       <c r="Q136" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>45.826356824999998</v>
       </c>
       <c r="R136" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>59.773508902173916</v>
       </c>
       <c r="S136">
         <v>214.46430000000004</v>
       </c>
       <c r="T136" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>61.372519500000003</v>
       </c>
       <c r="U136" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>80.051112391304358</v>
       </c>
       <c r="Y136">
@@ -18513,14 +19916,20 @@
       <c r="AB136">
         <v>3.3413827379691874</v>
       </c>
-      <c r="AC136" s="8">
+      <c r="AC136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE136" s="8">
         <v>-24.18469497644692</v>
       </c>
-      <c r="AD136" s="8">
+      <c r="AF136" s="8">
         <v>13.585762110418031</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>289</v>
       </c>
@@ -18562,7 +19971,7 @@
         <v>887</v>
       </c>
       <c r="N137" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>221.75</v>
       </c>
       <c r="O137" s="6"/>
@@ -18570,29 +19979,35 @@
         <v>163.91516700000003</v>
       </c>
       <c r="Q137" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>910.05511050000018</v>
       </c>
       <c r="R137" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1240.9842415909093</v>
       </c>
       <c r="S137">
         <v>704.39991999999995</v>
       </c>
       <c r="T137" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4167.0641099999993</v>
       </c>
       <c r="U137" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5682.3601499999986</v>
       </c>
       <c r="AA137" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD137" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>290</v>
       </c>
@@ -18633,7 +20048,7 @@
         <v>80</v>
       </c>
       <c r="N138" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="O138" s="6"/>
@@ -18641,29 +20056,35 @@
         <v>30.84639</v>
       </c>
       <c r="Q138" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>37.214149499999998</v>
       </c>
       <c r="R138" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>55.82122425</v>
       </c>
       <c r="S138">
         <v>194.29519999999999</v>
       </c>
       <c r="T138" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>368.81192999999996</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>553.217895</v>
       </c>
       <c r="AA138" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC138" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD138" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>291</v>
       </c>
@@ -18704,7 +20125,7 @@
         <v>113</v>
       </c>
       <c r="N139" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>28.25</v>
       </c>
       <c r="O139" s="6"/>
@@ -18712,22 +20133,22 @@
         <v>82.328415000000007</v>
       </c>
       <c r="Q139" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>140.17819950000001</v>
       </c>
       <c r="R139" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>186.90426600000001</v>
       </c>
       <c r="S139">
         <v>416.02232000000004</v>
       </c>
       <c r="T139" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>812.2661700000001</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1083.0215600000001</v>
       </c>
       <c r="Y139" s="8">
@@ -18742,14 +20163,20 @@
       <c r="AB139" s="8">
         <v>3.429755021452539</v>
       </c>
-      <c r="AC139" s="8">
+      <c r="AC139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE139" s="8">
         <v>-14.280671823532341</v>
       </c>
-      <c r="AD139" s="8">
+      <c r="AF139" s="8">
         <v>8.7663754273995718</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>292</v>
       </c>
@@ -18791,7 +20218,7 @@
         <v>6</v>
       </c>
       <c r="N140" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.5</v>
       </c>
       <c r="O140" s="6"/>
@@ -18799,22 +20226,22 @@
         <v>59.0389275</v>
       </c>
       <c r="Q140" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>14.039883674999999</v>
       </c>
       <c r="R140" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>20.056976678571427</v>
       </c>
       <c r="S140">
         <v>580.21780000000001</v>
       </c>
       <c r="T140" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>171.0985695</v>
       </c>
       <c r="U140" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>244.42652785714284</v>
       </c>
       <c r="Y140" s="8">
@@ -18829,14 +20256,20 @@
       <c r="AB140" s="8">
         <v>3.9749116846725046</v>
       </c>
-      <c r="AC140" s="8">
+      <c r="AC140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE140" s="8">
         <v>-13.498459787146206</v>
       </c>
-      <c r="AD140" s="8">
+      <c r="AF140" s="8">
         <v>9.0545550800780212</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>293</v>
       </c>
@@ -18878,7 +20311,7 @@
         <v>13</v>
       </c>
       <c r="N141" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3.25</v>
       </c>
       <c r="O141" s="6"/>
@@ -18886,22 +20319,22 @@
         <v>92.330636999999996</v>
       </c>
       <c r="Q141" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>24.027396524999997</v>
       </c>
       <c r="R141" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>33.526599802325578</v>
       </c>
       <c r="S141">
         <v>483.96151999999995</v>
       </c>
       <c r="T141" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>142.22168549999998</v>
       </c>
       <c r="U141" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>198.44886348837204</v>
       </c>
       <c r="Y141" s="8">
@@ -18916,14 +20349,20 @@
       <c r="AB141" s="8">
         <v>3.2530891323047784</v>
       </c>
-      <c r="AC141" s="8">
+      <c r="AC141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE141" s="8">
         <v>-16.520415610987907</v>
       </c>
-      <c r="AD141" s="8">
+      <c r="AF141" s="8">
         <v>9.5384608449851811</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>294</v>
       </c>
@@ -18964,7 +20403,7 @@
         <v>693</v>
       </c>
       <c r="N142" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>173.25</v>
       </c>
       <c r="O142" s="6"/>
@@ -18972,29 +20411,35 @@
         <v>31.140573</v>
       </c>
       <c r="Q142" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>113.4075465</v>
       </c>
       <c r="R142" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>144.77559127659575</v>
       </c>
       <c r="S142">
         <v>479.84955000000008</v>
       </c>
       <c r="T142" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2819.7618900000007</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3599.6960297872351</v>
       </c>
       <c r="AA142" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC142" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD142" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>295</v>
       </c>
@@ -19035,7 +20480,7 @@
         <v>562</v>
       </c>
       <c r="N143" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>140.5</v>
       </c>
       <c r="O143" s="6"/>
@@ -19043,29 +20488,35 @@
         <v>447.65467050000001</v>
       </c>
       <c r="Q143" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2177.07677625</v>
       </c>
       <c r="R143" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2779.2469484042554</v>
       </c>
       <c r="S143">
         <v>464.75655000000006</v>
       </c>
       <c r="T143" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2274.3365750000003</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2903.4083936170214</v>
       </c>
       <c r="AA143" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AC143" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD143" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>296</v>
       </c>
@@ -19106,36 +20557,42 @@
         <v>501</v>
       </c>
       <c r="N144" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>125.25</v>
       </c>
       <c r="P144">
         <v>30.258024000000002</v>
       </c>
       <c r="Q144" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>90.093543750000009</v>
       </c>
       <c r="R144" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>120.12472500000003</v>
       </c>
       <c r="S144">
         <v>638.96479999999997</v>
       </c>
       <c r="T144" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3145.377825</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4193.8370999999997</v>
       </c>
       <c r="AA144" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC144" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD144" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>297</v>
       </c>
@@ -19176,36 +20633,42 @@
         <v>307</v>
       </c>
       <c r="N145" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>76.75</v>
       </c>
       <c r="P145">
         <v>139.74313050000001</v>
       </c>
       <c r="Q145" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>255.0076305</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>355.82460069767438</v>
       </c>
       <c r="S145">
         <v>785.44172000000003</v>
       </c>
       <c r="T145" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1551.1049700000001</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2164.3325162790698</v>
       </c>
       <c r="AA145" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC145" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD145" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>298</v>
       </c>
@@ -19247,36 +20710,42 @@
         <v>472</v>
       </c>
       <c r="N146" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>118</v>
       </c>
       <c r="P146">
         <v>65.216770499999996</v>
       </c>
       <c r="Q146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>264.88727624999996</v>
       </c>
       <c r="R146" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>429.54693445945941</v>
       </c>
       <c r="S146">
         <v>497.24896000000001</v>
       </c>
       <c r="T146" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2436.7986250000004</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3951.5653378378379</v>
       </c>
       <c r="AA146" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC146" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD146" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>299</v>
       </c>
@@ -19318,36 +20787,42 @@
         <v>575</v>
       </c>
       <c r="N147" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>143.75</v>
       </c>
       <c r="P147">
         <v>74.777718000000007</v>
       </c>
       <c r="Q147" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>312.69201375</v>
       </c>
       <c r="R147" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>493.72423223684211</v>
       </c>
       <c r="S147">
         <v>464.16988000000003</v>
       </c>
       <c r="T147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2271.403225</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3586.4261447368422</v>
       </c>
       <c r="AA147" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC147" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD147" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>300</v>
       </c>
@@ -19389,36 +20864,42 @@
         <v>381</v>
       </c>
       <c r="N148" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>95.25</v>
       </c>
       <c r="P148">
         <v>114.98272799999999</v>
       </c>
       <c r="Q148" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>513.71706374999997</v>
       </c>
       <c r="R148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>811.13220592105256</v>
       </c>
       <c r="S148">
         <v>283.36605999999995</v>
       </c>
       <c r="T148" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1367.3841249999998</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2159.0275657894731</v>
       </c>
       <c r="AA148" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC148" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD148" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>301</v>
       </c>
@@ -19460,36 +20941,42 @@
         <v>552</v>
       </c>
       <c r="N149" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>138</v>
       </c>
       <c r="P149">
         <v>31.630877999999999</v>
       </c>
       <c r="Q149" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>96.957813749999985</v>
       </c>
       <c r="R149" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>171.10202426470585</v>
       </c>
       <c r="S149">
         <v>444.12945000000002</v>
       </c>
       <c r="T149" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2171.2010749999999</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3831.5313088235289</v>
       </c>
       <c r="AA149" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC149" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD149" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>302</v>
       </c>
@@ -19531,36 +21018,42 @@
         <v>359</v>
       </c>
       <c r="N150" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>89.75</v>
       </c>
       <c r="P150">
         <v>155.187738</v>
       </c>
       <c r="Q150" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>857.69053650000001</v>
       </c>
       <c r="R150" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1608.1697559375</v>
       </c>
       <c r="S150">
         <v>210.69104999999999</v>
       </c>
       <c r="T150" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1204.8108899999997</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2259.0204187499994</v>
       </c>
       <c r="AA150" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC150" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD150" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>303</v>
       </c>
@@ -19602,36 +21095,42 @@
         <v>513</v>
       </c>
       <c r="N151" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>128.25</v>
       </c>
       <c r="P151">
         <v>40.848612000000003</v>
       </c>
       <c r="Q151" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>143.04648375000002</v>
       </c>
       <c r="R151" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>295.95824224137931</v>
       </c>
       <c r="S151">
         <v>282.38280000000009</v>
       </c>
       <c r="T151" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1362.4678250000006</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2818.8989482758634</v>
       </c>
       <c r="AA151" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC151" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD151" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>304</v>
       </c>
@@ -19672,36 +21171,42 @@
         <v>380</v>
       </c>
       <c r="N152" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>95</v>
       </c>
       <c r="P152">
         <v>40.260246000000002</v>
       </c>
       <c r="Q152" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>140.10465375000001</v>
       </c>
       <c r="R152" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>280.20930750000002</v>
       </c>
       <c r="S152">
         <v>378.44344999999998</v>
       </c>
       <c r="T152" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1842.7710750000001</v>
       </c>
       <c r="U152" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3685.5421500000002</v>
       </c>
       <c r="AA152" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC152" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD152" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>305</v>
       </c>
@@ -19742,36 +21247,42 @@
         <v>405</v>
       </c>
       <c r="N153" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>101.25</v>
       </c>
       <c r="P153">
         <v>32.611488000000001</v>
       </c>
       <c r="Q153" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>101.86086375000001</v>
       </c>
       <c r="R153" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>203.72172750000001</v>
       </c>
       <c r="S153">
         <v>435.79056000000003</v>
       </c>
       <c r="T153" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2129.506625</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4259.01325</v>
       </c>
       <c r="AA153" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC153" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD153" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>306</v>
       </c>
@@ -19812,36 +21323,42 @@
         <v>243</v>
       </c>
       <c r="N154" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>60.75</v>
       </c>
       <c r="P154">
         <v>87.57467849999999</v>
       </c>
       <c r="Q154" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>150.67072649999997</v>
       </c>
       <c r="R154" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>311.73253758620683</v>
       </c>
       <c r="S154">
         <v>580.77488000000005</v>
       </c>
       <c r="T154" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1141.7712900000001</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2362.2854275862073</v>
       </c>
       <c r="AA154" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC154" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD154" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>307</v>
       </c>
@@ -19882,36 +21399,42 @@
         <v>376</v>
       </c>
       <c r="N155" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>94</v>
       </c>
       <c r="P155">
         <v>34.376586000000003</v>
       </c>
       <c r="Q155" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>110.68635375000001</v>
       </c>
       <c r="R155" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>255.43004711538464</v>
       </c>
       <c r="S155">
         <v>309.29865000000001</v>
       </c>
       <c r="T155" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1497.0470750000002</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3454.7240192307695</v>
       </c>
       <c r="AA155" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC155" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD155" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>308</v>
       </c>
@@ -19952,36 +21475,42 @@
         <v>380</v>
       </c>
       <c r="N156" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>95</v>
       </c>
       <c r="P156">
         <v>24.325333500000003</v>
       </c>
       <c r="Q156" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>60.430091250000011</v>
       </c>
       <c r="R156" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>145.03221900000003</v>
       </c>
       <c r="S156">
         <v>405.60364000000004</v>
       </c>
       <c r="T156" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1978.5720250000004</v>
       </c>
       <c r="U156" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4748.5728600000011</v>
       </c>
       <c r="AA156" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC156" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD156" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>309</v>
       </c>
@@ -20022,36 +21551,42 @@
         <v>260</v>
       </c>
       <c r="N157" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>65</v>
       </c>
       <c r="P157">
         <v>25.404004499999999</v>
       </c>
       <c r="Q157" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>65.823446249999989</v>
       </c>
       <c r="R157" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>157.97627099999997</v>
       </c>
       <c r="S157">
         <v>437.59815999999989</v>
       </c>
       <c r="T157" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2138.5446249999995</v>
       </c>
       <c r="U157" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5132.5070999999989</v>
       </c>
       <c r="AA157" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC157" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD157" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>310</v>
       </c>
@@ -20093,36 +21628,42 @@
         <v>312</v>
       </c>
       <c r="N158" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>78</v>
       </c>
       <c r="P158">
         <v>25.2078825</v>
       </c>
       <c r="Q158" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>51.874268999999998</v>
       </c>
       <c r="R158" s="6">
-        <f t="shared" ref="R158:R160" si="31">(Q158/J158*60)/G158</f>
+        <f t="shared" ref="R158:R160" si="34">(Q158/J158*60)/G158</f>
         <v>124.49824559999999</v>
       </c>
       <c r="S158">
         <v>305.62112000000002</v>
       </c>
       <c r="T158" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1182.9275400000001</v>
       </c>
       <c r="U158" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="U158:U160" si="35">(T158/J158*60)/G158</f>
         <v>2839.0260960000005</v>
       </c>
       <c r="AA158" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC158" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD158" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>311</v>
       </c>
@@ -20169,29 +21710,35 @@
         <v>13.342501499999999</v>
       </c>
       <c r="Q159" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.4127449999999939</v>
       </c>
       <c r="R159" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>5.5159312499999924</v>
       </c>
       <c r="S159">
         <v>12.649350000000002</v>
       </c>
       <c r="T159" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>11.040460000000003</v>
       </c>
       <c r="U159" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>13.800575000000004</v>
       </c>
       <c r="AA159" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC159" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD159" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>312</v>
       </c>
@@ -20238,30 +21785,40 @@
         <v>11.136129</v>
       </c>
       <c r="Q160" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.33095587500000007</v>
       </c>
       <c r="R160" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-0.40525209183673477</v>
       </c>
       <c r="S160">
         <v>7.1291200000000003</v>
       </c>
       <c r="T160" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-0.82803450000000023</v>
       </c>
       <c r="U160" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>-1.0139197959183675</v>
       </c>
       <c r="AA160" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="AC160" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD160" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R160" xr:uid="{4782880F-19F5-4C97-B687-8149361B0730}"/>
+  <autoFilter ref="A1:AF160" xr:uid="{4782880F-19F5-4C97-B687-8149361B0730}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF160">
+      <sortCondition ref="A1:A160"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/2022-03-03_LakeErie_Mastersheet.xlsx
+++ b/data/2022-03-03_LakeErie_Mastersheet.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="13_ncr:1_{EA2E9A16-F367-47E5-9F32-F761EF32E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD75D51B-6930-496E-94B3-ADA71AE56E1A}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{EA2E9A16-F367-47E5-9F32-F761EF32E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{628324BC-6800-441E-BA77-8A9F29459029}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCD5901F-55C5-46A6-83E9-A175C073FB2F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{FCD5901F-55C5-46A6-83E9-A175C073FB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Fishing and Environmental data" sheetId="3" r:id="rId1"/>
     <sheet name="Fish and mussel sampling" sheetId="1" r:id="rId2"/>
-    <sheet name="Biomass estimates" sheetId="5" r:id="rId3"/>
-    <sheet name="Column headings" sheetId="4" r:id="rId4"/>
-    <sheet name="21 08 26 Lake Erie Mastersheet" sheetId="2" r:id="rId5"/>
+    <sheet name="Fish_biomass_estimates" sheetId="5" r:id="rId3"/>
+    <sheet name="Dreissenid_biomass_estimates" sheetId="6" r:id="rId4"/>
+    <sheet name="WesternBasin_biomass" sheetId="7" r:id="rId5"/>
+    <sheet name="Column headings" sheetId="4" r:id="rId6"/>
+    <sheet name="21 08 26 Lake Erie Mastersheet" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'21 08 26 Lake Erie Mastersheet'!$A$1:$CJ$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'21 08 26 Lake Erie Mastersheet'!$A$1:$CJ$160</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fish and mussel sampling'!$A$1:$L$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="223">
   <si>
     <t>Sampling run</t>
   </si>
@@ -685,12 +687,39 @@
   <si>
     <t>for fish, from stable isotopes analyses in Fisk lab - used data based on whole body or muscle analyses. Summer data = collected in Aug. 2019, with YP average of all YP values since only have one individual tested for excretion. Fall data = collected in Oct. 2021. For mussels, used mussel tissue collected from individuals tested in the summer 2021 and analyzed at Trent Water Quality Centre in Feb 2023</t>
   </si>
+  <si>
+    <t>Ref: 500 g/m2 = 3.6cm</t>
+  </si>
+  <si>
+    <t>Biomass (g/m2)</t>
+  </si>
+  <si>
+    <t>Species.code</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Dreissenid</t>
+  </si>
+  <si>
+    <t>Biomass (kg/ha) SD</t>
+  </si>
+  <si>
+    <t>Biomass (g/m2) SD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +749,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -742,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -757,6 +799,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,10 +819,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -816,7 +864,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -922,7 +970,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1064,7 +1112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEA8862-2595-4F8C-BCE3-C83A0E339B61}">
   <dimension ref="A1:BO8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -8123,7 +8171,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8475,6 +8523,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DD69A6-9758-46F5-A03C-8A6B27428E10}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <f>2.25/3.6*500</f>
+        <v>312.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B3">
+        <f>3.1/3.6*500</f>
+        <v>430.5555555555556</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B4">
+        <f>1.4/3.6*500</f>
+        <v>194.44444444444443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B5">
+        <f>2.6/3.6*500</f>
+        <v>361.11111111111109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B6">
+        <f>4.7/3.6*500</f>
+        <v>652.77777777777783</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>1998</v>
+      </c>
+      <c r="B7">
+        <f>2.75/3.6*500</f>
+        <v>381.9444444444444</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1993</v>
+      </c>
+      <c r="B8">
+        <f>2/3.6*500</f>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>1992</v>
+      </c>
+      <c r="B9">
+        <f>1.3/3.6*500</f>
+        <v>180.55555555555554</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1934CC-AF7C-4B16-A1BA-6A4CD2D5F7CF}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(136,96)</f>
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(108,102)</f>
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(96,46)</f>
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(69,43)</f>
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(101, 74)</f>
+        <v>87.5</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(75, 57)</f>
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(122, 86)</f>
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(100, 66)</f>
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(194, 178)</f>
+        <v>186</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(173, 113)</f>
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2013</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(310, 235)</f>
+        <v>272.5</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(249, 154)</f>
+        <v>201.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="C11">
+        <f>1.6/3.2*500</f>
+        <v>250</v>
+      </c>
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="C12">
+        <f>2.7/3.2*500</f>
+        <v>421.875</v>
+      </c>
+      <c r="F12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB797C5-CB47-4805-AD51-BAF5F7220E5D}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
@@ -8736,15 +9106,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4782880F-19F5-4C97-B687-8149361B0730}">
   <dimension ref="A1:CJ160"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN44" sqref="AN44"/>
+      <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9106,8 +9476,17 @@
         <f>(Z2/J2*60)/G2</f>
         <v>6537.8599495402977</v>
       </c>
+      <c r="AB2">
+        <v>48.387730230000003</v>
+      </c>
+      <c r="AC2">
+        <v>14.85303817</v>
+      </c>
       <c r="AD2" t="s">
         <v>31</v>
+      </c>
+      <c r="AE2">
+        <v>3.2577665040000001</v>
       </c>
       <c r="AF2" t="s">
         <v>31</v>
@@ -9372,11 +9751,17 @@
         <f t="shared" ref="AA3:AA66" si="8">(Z3/J3*60)/G3</f>
         <v>4989.2799861942904</v>
       </c>
+      <c r="AB3">
+        <v>48.145931959999999</v>
+      </c>
+      <c r="AC3">
+        <v>14.62314237</v>
+      </c>
       <c r="AD3" t="s">
         <v>31</v>
       </c>
       <c r="AE3">
-        <v>4.9547660021985802</v>
+        <v>3.2924477350000001</v>
       </c>
       <c r="AF3" t="s">
         <v>31</v>
@@ -9641,8 +10026,17 @@
         <f t="shared" si="8"/>
         <v>3670.9015726696243</v>
       </c>
+      <c r="AB4">
+        <v>50.442654920000003</v>
+      </c>
+      <c r="AC4">
+        <v>13.864247049999999</v>
+      </c>
       <c r="AD4" t="s">
         <v>31</v>
+      </c>
+      <c r="AE4">
+        <v>3.6383263170000002</v>
       </c>
       <c r="AF4" t="s">
         <v>31</v>
@@ -9907,11 +10301,17 @@
         <f t="shared" si="8"/>
         <v>2432.2891785802917</v>
       </c>
+      <c r="AB5">
+        <v>49.353448210000003</v>
+      </c>
+      <c r="AC5">
+        <v>14.41409494</v>
+      </c>
       <c r="AD5" t="s">
         <v>31</v>
       </c>
       <c r="AE5">
-        <v>4.7499695394714312</v>
+        <v>3.4239713570000001</v>
       </c>
       <c r="AF5" t="s">
         <v>31</v>
@@ -10176,11 +10576,17 @@
         <f t="shared" si="8"/>
         <v>2235.0599670628344</v>
       </c>
+      <c r="AB6">
+        <v>45.834344119999997</v>
+      </c>
+      <c r="AC6">
+        <v>13.68383482</v>
+      </c>
       <c r="AD6" t="s">
         <v>31</v>
       </c>
       <c r="AE6">
-        <v>3.2918023079999998</v>
+        <v>3.3495248009999998</v>
       </c>
       <c r="AF6" t="s">
         <v>31</v>
@@ -10189,10 +10595,10 @@
         <v>31</v>
       </c>
       <c r="AH6">
-        <v>-23.199938060000001</v>
+        <v>-23.99557239</v>
       </c>
       <c r="AI6">
-        <v>13.32790164</v>
+        <v>12.90011838</v>
       </c>
       <c r="AJ6" s="7">
         <v>8.51</v>
@@ -10445,11 +10851,17 @@
         <f t="shared" si="8"/>
         <v>1656.2443511485969</v>
       </c>
+      <c r="AB7">
+        <v>45.891883290000003</v>
+      </c>
+      <c r="AC7">
+        <v>14.02760546</v>
+      </c>
       <c r="AD7" t="s">
         <v>31</v>
       </c>
       <c r="AE7">
-        <v>3.4736409730000002</v>
+        <v>3.2715407779999999</v>
       </c>
       <c r="AF7" t="s">
         <v>31</v>
@@ -10458,10 +10870,10 @@
         <v>31</v>
       </c>
       <c r="AH7">
-        <v>-23.750301650000001</v>
+        <v>-23.983607960000001</v>
       </c>
       <c r="AI7">
-        <v>12.46836497</v>
+        <v>12.33139493</v>
       </c>
       <c r="AJ7" s="7">
         <v>8.51</v>
@@ -15387,20 +15799,11 @@
       <c r="AD26" t="s">
         <v>31</v>
       </c>
-      <c r="AE26">
-        <v>3.3495248009999998</v>
-      </c>
       <c r="AF26" t="s">
         <v>31</v>
       </c>
       <c r="AG26" t="s">
         <v>31</v>
-      </c>
-      <c r="AH26">
-        <v>-23.99557239</v>
-      </c>
-      <c r="AI26">
-        <v>12.90011838</v>
       </c>
       <c r="AJ26" s="7">
         <v>8.49</v>
@@ -16734,11 +17137,17 @@
         <f t="shared" si="8"/>
         <v>2842.1206317251458</v>
       </c>
+      <c r="AB31">
+        <v>46.820824039999998</v>
+      </c>
+      <c r="AC31">
+        <v>14.28768788</v>
+      </c>
       <c r="AD31" t="s">
         <v>31</v>
       </c>
       <c r="AE31">
-        <v>3.3357466021111106</v>
+        <v>3.2770049609999998</v>
       </c>
       <c r="AF31" t="s">
         <v>31</v>
@@ -16747,10 +17156,10 @@
         <v>31</v>
       </c>
       <c r="AH31">
-        <v>-23.614508616666669</v>
+        <v>-23.886097759999998</v>
       </c>
       <c r="AI31">
-        <v>13.141214462222223</v>
+        <v>12.58401098</v>
       </c>
       <c r="AJ31" s="7">
         <v>8.49</v>
@@ -17261,20 +17670,11 @@
       <c r="AD33" t="s">
         <v>31</v>
       </c>
-      <c r="AE33">
-        <v>3.2715407779999999</v>
-      </c>
       <c r="AF33" t="s">
         <v>31</v>
       </c>
       <c r="AG33" t="s">
         <v>31</v>
-      </c>
-      <c r="AH33">
-        <v>-23.983607960000001</v>
-      </c>
-      <c r="AI33">
-        <v>12.33139493</v>
       </c>
       <c r="AJ33">
         <v>8.4700000000000006</v>
@@ -17787,6 +18187,12 @@
         <f t="shared" si="8"/>
         <v>15275.106764049448</v>
       </c>
+      <c r="AB35">
+        <v>44.942498649999997</v>
+      </c>
+      <c r="AC35">
+        <v>14.150903189999999</v>
+      </c>
       <c r="AD35" t="s">
         <v>31</v>
       </c>
@@ -18056,6 +18462,12 @@
         <f t="shared" si="8"/>
         <v>19399.629493172204</v>
       </c>
+      <c r="AB36">
+        <v>43.323799899999997</v>
+      </c>
+      <c r="AC36">
+        <v>12.7768157</v>
+      </c>
       <c r="AD36" t="s">
         <v>31</v>
       </c>
@@ -18325,6 +18737,12 @@
         <f t="shared" si="8"/>
         <v>9190.1849384170073</v>
       </c>
+      <c r="AB37">
+        <v>44.376729159999996</v>
+      </c>
+      <c r="AC37">
+        <v>14.06385596</v>
+      </c>
       <c r="AD37" t="s">
         <v>31</v>
       </c>
@@ -18854,14 +19272,29 @@
         <f t="shared" si="8"/>
         <v>2698.909275762624</v>
       </c>
+      <c r="AB39">
+        <v>46.958182299999997</v>
+      </c>
+      <c r="AC39">
+        <v>14.26518907</v>
+      </c>
       <c r="AD39" t="s">
         <v>31</v>
       </c>
+      <c r="AE39">
+        <v>3.2918023079999998</v>
+      </c>
       <c r="AF39" t="s">
         <v>31</v>
       </c>
       <c r="AG39" t="s">
         <v>31</v>
+      </c>
+      <c r="AH39">
+        <v>-23.199938060000001</v>
+      </c>
+      <c r="AI39">
+        <v>13.32790164</v>
       </c>
       <c r="AJ39">
         <v>8.4700000000000006</v>
@@ -19114,14 +19547,29 @@
         <f t="shared" si="8"/>
         <v>3119.5225225396653</v>
       </c>
+      <c r="AB40">
+        <v>47.341653639999997</v>
+      </c>
+      <c r="AC40">
+        <v>13.628827510000001</v>
+      </c>
       <c r="AD40" t="s">
         <v>31</v>
       </c>
+      <c r="AE40">
+        <v>3.4736409730000002</v>
+      </c>
       <c r="AF40" t="s">
         <v>31</v>
       </c>
       <c r="AG40" t="s">
         <v>31</v>
+      </c>
+      <c r="AH40">
+        <v>-23.750301650000001</v>
+      </c>
+      <c r="AI40">
+        <v>12.46836497</v>
       </c>
       <c r="AJ40">
         <v>8.4700000000000006</v>

--- a/data/2022-03-03_LakeErie_Mastersheet.xlsx
+++ b/data/2022-03-03_LakeErie_Mastersheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{EA2E9A16-F367-47E5-9F32-F761EF32E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{628324BC-6800-441E-BA77-8A9F29459029}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="13_ncr:1_{EA2E9A16-F367-47E5-9F32-F761EF32E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552A0181-A305-432F-B9D4-93FBCBBED485}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{FCD5901F-55C5-46A6-83E9-A175C073FB2F}"/>
   </bookViews>
@@ -819,10 +819,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -9114,7 +9110,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
+      <selection pane="bottomRight" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9477,16 +9473,16 @@
         <v>6537.8599495402977</v>
       </c>
       <c r="AB2">
-        <v>48.387730230000003</v>
+        <v>48.130241346153859</v>
       </c>
       <c r="AC2">
-        <v>14.85303817</v>
+        <v>13.736281153307694</v>
       </c>
       <c r="AD2" t="s">
         <v>31</v>
       </c>
       <c r="AE2">
-        <v>3.2577665040000001</v>
+        <v>3.5897974680769233</v>
       </c>
       <c r="AF2" t="s">
         <v>31</v>
@@ -9495,10 +9491,10 @@
         <v>31</v>
       </c>
       <c r="AH2">
-        <v>-23.46392457</v>
+        <v>-23.615299784615388</v>
       </c>
       <c r="AI2">
-        <v>13.6533783</v>
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ2" s="7">
         <v>8.51</v>
@@ -9752,16 +9748,16 @@
         <v>4989.2799861942904</v>
       </c>
       <c r="AB3">
-        <v>48.145931959999999</v>
+        <v>48.130241346153859</v>
       </c>
       <c r="AC3">
-        <v>14.62314237</v>
+        <v>13.736281153307694</v>
       </c>
       <c r="AD3" t="s">
         <v>31</v>
       </c>
       <c r="AE3">
-        <v>3.2924477350000001</v>
+        <v>3.5897974680769233</v>
       </c>
       <c r="AF3" t="s">
         <v>31</v>
@@ -9770,10 +9766,10 @@
         <v>31</v>
       </c>
       <c r="AH3">
-        <v>-23.579953140000001</v>
+        <v>-23.615299784615388</v>
       </c>
       <c r="AI3">
-        <v>13.2516865</v>
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ3" s="7">
         <v>8.51</v>
@@ -10027,16 +10023,16 @@
         <v>3670.9015726696243</v>
       </c>
       <c r="AB4">
-        <v>50.442654920000003</v>
+        <v>48.130241346153859</v>
       </c>
       <c r="AC4">
-        <v>13.864247049999999</v>
+        <v>13.736281153307694</v>
       </c>
       <c r="AD4" t="s">
         <v>31</v>
       </c>
       <c r="AE4">
-        <v>3.6383263170000002</v>
+        <v>3.5897974680769233</v>
       </c>
       <c r="AF4" t="s">
         <v>31</v>
@@ -10045,10 +10041,10 @@
         <v>31</v>
       </c>
       <c r="AH4">
-        <v>-24.82197815</v>
+        <v>-23.615299784615388</v>
       </c>
       <c r="AI4">
-        <v>13.55605458</v>
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ4" s="7">
         <v>8.51</v>
@@ -10302,16 +10298,16 @@
         <v>2432.2891785802917</v>
       </c>
       <c r="AB5">
-        <v>49.353448210000003</v>
+        <v>48.130241346153859</v>
       </c>
       <c r="AC5">
-        <v>14.41409494</v>
+        <v>13.736281153307694</v>
       </c>
       <c r="AD5" t="s">
         <v>31</v>
       </c>
       <c r="AE5">
-        <v>3.4239713570000001</v>
+        <v>3.5897974680769233</v>
       </c>
       <c r="AF5" t="s">
         <v>31</v>
@@ -10320,10 +10316,10 @@
         <v>31</v>
       </c>
       <c r="AH5">
-        <v>-24.048745220000001</v>
+        <v>-23.615299784615388</v>
       </c>
       <c r="AI5">
-        <v>12.74130587</v>
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ5" s="7">
         <v>8.51</v>
@@ -10577,16 +10573,16 @@
         <v>2235.0599670628344</v>
       </c>
       <c r="AB6">
-        <v>45.834344119999997</v>
+        <v>48.130241346153859</v>
       </c>
       <c r="AC6">
-        <v>13.68383482</v>
+        <v>13.736281153307694</v>
       </c>
       <c r="AD6" t="s">
         <v>31</v>
       </c>
       <c r="AE6">
-        <v>3.3495248009999998</v>
+        <v>3.5897974680769233</v>
       </c>
       <c r="AF6" t="s">
         <v>31</v>
@@ -10595,10 +10591,10 @@
         <v>31</v>
       </c>
       <c r="AH6">
-        <v>-23.99557239</v>
+        <v>-23.615299784615388</v>
       </c>
       <c r="AI6">
-        <v>12.90011838</v>
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ6" s="7">
         <v>8.51</v>
@@ -10852,16 +10848,16 @@
         <v>1656.2443511485969</v>
       </c>
       <c r="AB7">
-        <v>45.891883290000003</v>
+        <v>48.130241346153859</v>
       </c>
       <c r="AC7">
-        <v>14.02760546</v>
+        <v>13.736281153307694</v>
       </c>
       <c r="AD7" t="s">
         <v>31</v>
       </c>
       <c r="AE7">
-        <v>3.2715407779999999</v>
+        <v>3.5897974680769233</v>
       </c>
       <c r="AF7" t="s">
         <v>31</v>
@@ -10870,10 +10866,10 @@
         <v>31</v>
       </c>
       <c r="AH7">
-        <v>-23.983607960000001</v>
+        <v>-23.615299784615388</v>
       </c>
       <c r="AI7">
-        <v>12.33139493</v>
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ7" s="7">
         <v>8.51</v>
@@ -15796,14 +15792,29 @@
         <f t="shared" si="8"/>
         <v>3441.6772221077067</v>
       </c>
+      <c r="AB26">
+        <v>48.130241346153859</v>
+      </c>
+      <c r="AC26">
+        <v>13.736281153307694</v>
+      </c>
       <c r="AD26" t="s">
         <v>31</v>
       </c>
+      <c r="AE26">
+        <v>3.5897974680769233</v>
+      </c>
       <c r="AF26" t="s">
         <v>31</v>
       </c>
       <c r="AG26" t="s">
         <v>31</v>
+      </c>
+      <c r="AH26">
+        <v>-23.615299784615388</v>
+      </c>
+      <c r="AI26">
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ26" s="7">
         <v>8.49</v>
@@ -17138,16 +17149,16 @@
         <v>2842.1206317251458</v>
       </c>
       <c r="AB31">
-        <v>46.820824039999998</v>
+        <v>44.849519902307684</v>
       </c>
       <c r="AC31">
-        <v>14.28768788</v>
+        <v>13.606231183461539</v>
       </c>
       <c r="AD31" t="s">
         <v>31</v>
       </c>
       <c r="AE31">
-        <v>3.2770049609999998</v>
+        <v>3.2911418164615389</v>
       </c>
       <c r="AF31" t="s">
         <v>31</v>
@@ -17156,10 +17167,10 @@
         <v>31</v>
       </c>
       <c r="AH31">
-        <v>-23.886097759999998</v>
+        <v>-22.957768973076927</v>
       </c>
       <c r="AI31">
-        <v>12.58401098</v>
+        <v>13.280494286923076</v>
       </c>
       <c r="AJ31" s="7">
         <v>8.49</v>
@@ -17667,14 +17678,29 @@
         <f t="shared" si="8"/>
         <v>3071.1757577511162</v>
       </c>
+      <c r="AB33">
+        <v>48.130241346153859</v>
+      </c>
+      <c r="AC33">
+        <v>13.736281153307694</v>
+      </c>
       <c r="AD33" t="s">
         <v>31</v>
       </c>
+      <c r="AE33">
+        <v>3.5897974680769233</v>
+      </c>
       <c r="AF33" t="s">
         <v>31</v>
       </c>
       <c r="AG33" t="s">
         <v>31</v>
+      </c>
+      <c r="AH33">
+        <v>-23.615299784615388</v>
+      </c>
+      <c r="AI33">
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ33">
         <v>8.4700000000000006</v>
@@ -17927,14 +17953,29 @@
         <f t="shared" si="8"/>
         <v>2371.244266987349</v>
       </c>
+      <c r="AB34">
+        <v>48.130241346153859</v>
+      </c>
+      <c r="AC34">
+        <v>13.736281153307694</v>
+      </c>
       <c r="AD34" t="s">
         <v>31</v>
       </c>
+      <c r="AE34">
+        <v>3.5897974680769233</v>
+      </c>
       <c r="AF34" t="s">
         <v>31</v>
       </c>
       <c r="AG34" t="s">
         <v>31</v>
+      </c>
+      <c r="AH34">
+        <v>-23.615299784615388</v>
+      </c>
+      <c r="AI34">
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ34">
         <v>8.4700000000000006</v>
@@ -18188,16 +18229,16 @@
         <v>15275.106764049448</v>
       </c>
       <c r="AB35">
-        <v>44.942498649999997</v>
+        <v>51.794115875333326</v>
       </c>
       <c r="AC35">
-        <v>14.150903189999999</v>
+        <v>11.136419494933332</v>
       </c>
       <c r="AD35" t="s">
         <v>31</v>
       </c>
       <c r="AE35">
-        <v>3.175945595</v>
+        <v>5.0821599532666664</v>
       </c>
       <c r="AF35" t="s">
         <v>31</v>
@@ -18206,10 +18247,10 @@
         <v>31</v>
       </c>
       <c r="AH35">
-        <v>-23.480379859999999</v>
+        <v>-24.145373220666663</v>
       </c>
       <c r="AI35">
-        <v>11.50440961</v>
+        <v>11.343827143333334</v>
       </c>
       <c r="AJ35">
         <v>8.4700000000000006</v>
@@ -18463,16 +18504,16 @@
         <v>19399.629493172204</v>
       </c>
       <c r="AB36">
-        <v>43.323799899999997</v>
+        <v>51.794115875333326</v>
       </c>
       <c r="AC36">
-        <v>12.7768157</v>
+        <v>11.136419494933332</v>
       </c>
       <c r="AD36" t="s">
         <v>31</v>
       </c>
       <c r="AE36">
-        <v>3.390813557</v>
+        <v>5.0821599532666664</v>
       </c>
       <c r="AF36" t="s">
         <v>31</v>
@@ -18481,10 +18522,10 @@
         <v>31</v>
       </c>
       <c r="AH36">
-        <v>-24.30874549</v>
+        <v>-24.145373220666663</v>
       </c>
       <c r="AI36">
-        <v>10.85945626</v>
+        <v>11.343827143333334</v>
       </c>
       <c r="AJ36">
         <v>8.4700000000000006</v>
@@ -18738,16 +18779,16 @@
         <v>9190.1849384170073</v>
       </c>
       <c r="AB37">
-        <v>44.376729159999996</v>
+        <v>51.794115875333326</v>
       </c>
       <c r="AC37">
-        <v>14.06385596</v>
+        <v>11.136419494933332</v>
       </c>
       <c r="AD37" t="s">
         <v>31</v>
       </c>
       <c r="AE37">
-        <v>3.1553742640000002</v>
+        <v>5.0821599532666664</v>
       </c>
       <c r="AF37" t="s">
         <v>31</v>
@@ -18756,10 +18797,10 @@
         <v>31</v>
       </c>
       <c r="AH37">
-        <v>-23.583802439999999</v>
+        <v>-24.145373220666663</v>
       </c>
       <c r="AI37">
-        <v>12.325439190000001</v>
+        <v>11.343827143333334</v>
       </c>
       <c r="AJ37">
         <v>8.4700000000000006</v>
@@ -19273,16 +19314,16 @@
         <v>2698.909275762624</v>
       </c>
       <c r="AB39">
-        <v>46.958182299999997</v>
+        <v>48.130241346153859</v>
       </c>
       <c r="AC39">
-        <v>14.26518907</v>
+        <v>13.736281153307694</v>
       </c>
       <c r="AD39" t="s">
         <v>31</v>
       </c>
       <c r="AE39">
-        <v>3.2918023079999998</v>
+        <v>3.5897974680769233</v>
       </c>
       <c r="AF39" t="s">
         <v>31</v>
@@ -19291,10 +19332,10 @@
         <v>31</v>
       </c>
       <c r="AH39">
-        <v>-23.199938060000001</v>
+        <v>-23.615299784615388</v>
       </c>
       <c r="AI39">
-        <v>13.32790164</v>
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ39">
         <v>8.4700000000000006</v>
@@ -19548,16 +19589,16 @@
         <v>3119.5225225396653</v>
       </c>
       <c r="AB40">
-        <v>47.341653639999997</v>
+        <v>48.130241346153859</v>
       </c>
       <c r="AC40">
-        <v>13.628827510000001</v>
+        <v>13.736281153307694</v>
       </c>
       <c r="AD40" t="s">
         <v>31</v>
       </c>
       <c r="AE40">
-        <v>3.4736409730000002</v>
+        <v>3.5897974680769233</v>
       </c>
       <c r="AF40" t="s">
         <v>31</v>
@@ -19566,10 +19607,10 @@
         <v>31</v>
       </c>
       <c r="AH40">
-        <v>-23.750301650000001</v>
+        <v>-23.615299784615388</v>
       </c>
       <c r="AI40">
-        <v>12.46836497</v>
+        <v>12.931454542307693</v>
       </c>
       <c r="AJ40">
         <v>8.4700000000000006</v>
